--- a/Examples/GUI_Truss2D/GUI_Arch Truss_1_Solved.xlsx
+++ b/Examples/GUI_Truss2D/GUI_Arch Truss_1_Solved.xlsx
@@ -1549,7 +1549,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>-13.1316</v>
+        <v>-6.5596</v>
       </c>
     </row>
     <row r="5">
@@ -1557,7 +1557,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>-18.50675</v>
+        <v>-9.249409999999999</v>
       </c>
     </row>
     <row r="6">
@@ -1581,7 +1581,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>-18.50675</v>
+        <v>-9.249409999999999</v>
       </c>
     </row>
     <row r="9">
@@ -1589,7 +1589,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>-13.1316</v>
+        <v>-6.5596</v>
       </c>
     </row>
     <row r="10">
@@ -1597,7 +1597,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>11.1104</v>
+        <v>5.5552</v>
       </c>
     </row>
     <row r="11">
@@ -1605,7 +1605,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>11.1104</v>
+        <v>5.5552</v>
       </c>
     </row>
     <row r="12">
@@ -1613,7 +1613,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>-35.35704</v>
+        <v>-17.68266</v>
       </c>
     </row>
     <row r="13">
@@ -1621,7 +1621,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>-14.80111</v>
+        <v>-7.40606</v>
       </c>
     </row>
     <row r="14">
@@ -1629,7 +1629,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>-14.80112</v>
+        <v>-7.40606</v>
       </c>
     </row>
     <row r="15">
@@ -1637,7 +1637,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>-35.3554</v>
+        <v>-17.68266</v>
       </c>
     </row>
     <row r="16">
@@ -1645,7 +1645,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.43843</v>
+        <v>10.21652</v>
       </c>
     </row>
     <row r="17">
@@ -1653,7 +1653,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.43843</v>
+        <v>10.21652</v>
       </c>
     </row>
     <row r="18">
@@ -1661,7 +1661,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.00162</v>
+        <v>-0.00029</v>
       </c>
     </row>
     <row r="19">
@@ -1669,7 +1669,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.00162</v>
+        <v>-0.00029</v>
       </c>
     </row>
     <row r="20">
@@ -1677,7 +1677,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>-83.62485</v>
+        <v>-41.80967</v>
       </c>
     </row>
     <row r="21">
@@ -1685,7 +1685,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>-83.62485</v>
+        <v>-41.80967</v>
       </c>
     </row>
     <row r="22">
@@ -1693,7 +1693,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>36.99839</v>
+        <v>18.50236</v>
       </c>
     </row>
     <row r="23">
@@ -1701,7 +1701,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>36.99839</v>
+        <v>18.50236</v>
       </c>
     </row>
     <row r="24">
@@ -1709,7 +1709,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>20.43304</v>
+        <v>10.21652</v>
       </c>
     </row>
     <row r="25">
@@ -1717,7 +1717,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>20.43304</v>
+        <v>10.21652</v>
       </c>
     </row>
     <row r="26">
@@ -1725,7 +1725,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>-24.74865</v>
+        <v>-12.36612</v>
       </c>
     </row>
     <row r="27">
@@ -1733,7 +1733,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>-24.74865</v>
+        <v>-12.36612</v>
       </c>
     </row>
     <row r="28">
@@ -1741,7 +1741,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>-84.16305</v>
+        <v>-42.07882</v>
       </c>
     </row>
     <row r="29">
@@ -1749,7 +1749,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>-84.16069</v>
+        <v>-42.08423</v>
       </c>
     </row>
     <row r="30">
@@ -1757,7 +1757,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>20.34366</v>
+        <v>10.17441</v>
       </c>
     </row>
     <row r="31">
@@ -1765,7 +1765,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>20.34814</v>
+        <v>10.17372</v>
       </c>
     </row>
     <row r="32">
@@ -1773,7 +1773,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>37.23774</v>
+        <v>18.61617</v>
       </c>
     </row>
     <row r="33">
@@ -1781,7 +1781,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>37.23774</v>
+        <v>18.62157</v>
       </c>
     </row>
     <row r="34">
@@ -1789,7 +1789,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.00251</v>
+        <v>-0.00632</v>
       </c>
     </row>
     <row r="35">
@@ -1797,7 +1797,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.00251</v>
+        <v>0.00382</v>
       </c>
     </row>
     <row r="36">
@@ -1805,7 +1805,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>-44.06427</v>
+        <v>-22.0338</v>
       </c>
     </row>
     <row r="37">
@@ -1813,7 +1813,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>-44.06427</v>
+        <v>-22.02665</v>
       </c>
     </row>
     <row r="38">
@@ -1821,7 +1821,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>-28.02459</v>
+        <v>-14.01399</v>
       </c>
     </row>
     <row r="39">
@@ -1829,7 +1829,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>-28.02459</v>
+        <v>-14.01061</v>
       </c>
     </row>
     <row r="40">
@@ -1837,7 +1837,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>-44.05956</v>
+        <v>-22.03526</v>
       </c>
     </row>
     <row r="41">
@@ -1845,7 +1845,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>-44.06671</v>
+        <v>-22.03526</v>
       </c>
     </row>
     <row r="42">
@@ -1853,7 +1853,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>37.23774</v>
+        <v>18.62157</v>
       </c>
     </row>
     <row r="43">
@@ -1861,7 +1861,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>37.23774</v>
+        <v>18.61617</v>
       </c>
     </row>
     <row r="44">
@@ -1869,7 +1869,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.00029</v>
+        <v>0.0015</v>
       </c>
     </row>
     <row r="45">
@@ -1877,7 +1877,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.00029</v>
+        <v>0.0015</v>
       </c>
     </row>
     <row r="46">
@@ -1885,7 +1885,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>9.867050000000001</v>
+        <v>4.93398</v>
       </c>
     </row>
     <row r="47">
@@ -1893,7 +1893,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>9.86796</v>
+        <v>4.93398</v>
       </c>
     </row>
     <row r="48">
@@ -1901,7 +1901,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>-35.8229</v>
+        <v>-17.91145</v>
       </c>
     </row>
     <row r="49">
@@ -1909,7 +1909,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>-35.8229</v>
+        <v>-17.91145</v>
       </c>
     </row>
     <row r="50">
@@ -1917,7 +1917,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>-13.36456</v>
+        <v>-6.67862</v>
       </c>
     </row>
     <row r="51">
@@ -1925,7 +1925,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>-13.36485</v>
+        <v>-6.68126</v>
       </c>
     </row>
     <row r="52">
@@ -1933,7 +1933,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>12.88911</v>
+        <v>6.448</v>
       </c>
     </row>
     <row r="53">
@@ -1941,7 +1941,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>12.88911</v>
+        <v>6.448</v>
       </c>
     </row>
     <row r="54">
@@ -1949,7 +1949,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>-4.56419</v>
+        <v>-2.28043</v>
       </c>
     </row>
     <row r="55">
@@ -1957,7 +1957,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>-4.56624</v>
+        <v>-2.28249</v>
       </c>
     </row>
     <row r="56">
@@ -1965,7 +1965,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>-35.82537</v>
+        <v>-17.90908</v>
       </c>
     </row>
     <row r="57">
@@ -1973,7 +1973,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>-35.82537</v>
+        <v>-17.90908</v>
       </c>
     </row>
     <row r="58">
@@ -1981,7 +1981,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0.00378</v>
+        <v>0.00319</v>
       </c>
     </row>
     <row r="59">
@@ -1989,7 +1989,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.00047</v>
+        <v>0.00135</v>
       </c>
     </row>
     <row r="60">
@@ -1997,7 +1997,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>12.02634</v>
+        <v>6.0142</v>
       </c>
     </row>
     <row r="61">
@@ -2005,7 +2005,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>12.02702</v>
+        <v>6.00834</v>
       </c>
     </row>
     <row r="62">
@@ -2013,7 +2013,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>-30.72857</v>
+        <v>-15.35793</v>
       </c>
     </row>
     <row r="63">
@@ -2021,7 +2021,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>-30.71585</v>
+        <v>-15.36366</v>
       </c>
     </row>
     <row r="64">
@@ -2029,7 +2029,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>2.0343</v>
+        <v>1.01715</v>
       </c>
     </row>
     <row r="65">
@@ -2037,7 +2037,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>2.03007</v>
+        <v>1.01633</v>
       </c>
     </row>
     <row r="66">
@@ -2045,7 +2045,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>-3.23843</v>
+        <v>-1.61744</v>
       </c>
     </row>
     <row r="67">
@@ -2053,7 +2053,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>-3.24054</v>
+        <v>-1.62561</v>
       </c>
     </row>
     <row r="68">
@@ -2061,7 +2061,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>-6.50122</v>
+        <v>-3.24813</v>
       </c>
     </row>
     <row r="69">
@@ -2069,7 +2069,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>-6.49723</v>
+        <v>-3.25382</v>
       </c>
     </row>
     <row r="70">
@@ -2077,7 +2077,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>11.18288</v>
+        <v>5.59331</v>
       </c>
     </row>
     <row r="71">
@@ -2085,7 +2085,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>11.18288</v>
+        <v>5.596</v>
       </c>
     </row>
     <row r="72">
@@ -2093,7 +2093,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>-30.71712</v>
+        <v>-15.36323</v>
       </c>
     </row>
     <row r="73">
@@ -2101,7 +2101,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>-30.72179</v>
+        <v>-15.35856</v>
       </c>
     </row>
     <row r="74">
@@ -2109,7 +2109,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.00256</v>
+        <v>0.00061</v>
       </c>
     </row>
     <row r="75">
@@ -2117,7 +2117,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.00174</v>
+        <v>-0.00276</v>
       </c>
     </row>
     <row r="76">
@@ -2125,7 +2125,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>13.39003</v>
+        <v>6.69501</v>
       </c>
     </row>
     <row r="77">
@@ -2133,7 +2133,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>13.39005</v>
+        <v>6.69502</v>
       </c>
     </row>
     <row r="78">
@@ -2141,7 +2141,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>5.16496</v>
+        <v>2.58568</v>
       </c>
     </row>
     <row r="79">
@@ -2149,7 +2149,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>5.16687</v>
+        <v>2.5807</v>
       </c>
     </row>
     <row r="80">
@@ -2157,7 +2157,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>-21.19591</v>
+        <v>-10.6044</v>
       </c>
     </row>
     <row r="81">
@@ -2165,7 +2165,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>-21.20061</v>
+        <v>-10.6003</v>
       </c>
     </row>
     <row r="82">
@@ -2173,7 +2173,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>-3.28202</v>
+        <v>-1.63535</v>
       </c>
     </row>
     <row r="83">
@@ -2181,7 +2181,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>-3.27294</v>
+        <v>-1.6393</v>
       </c>
     </row>
     <row r="84">
@@ -2189,7 +2189,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>8.25221</v>
+        <v>4.12953</v>
       </c>
     </row>
     <row r="85">
@@ -2197,7 +2197,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>8.25221</v>
+        <v>4.12268</v>
       </c>
     </row>
     <row r="86">
@@ -2205,7 +2205,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>-8.41638</v>
+        <v>-4.20249</v>
       </c>
     </row>
     <row r="87">
@@ -2213,7 +2213,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>-8.41459</v>
+        <v>-4.20729</v>
       </c>
     </row>
     <row r="88">
@@ -2221,7 +2221,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>-21.20109</v>
+        <v>-10.59753</v>
       </c>
     </row>
     <row r="89">
@@ -2229,7 +2229,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>-21.20109</v>
+        <v>-10.59753</v>
       </c>
     </row>
     <row r="90">
@@ -2237,7 +2237,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.0009700000000000001</v>
+        <v>0.00145</v>
       </c>
     </row>
     <row r="91">
@@ -2245,7 +2245,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>0.00289</v>
+        <v>0.00145</v>
       </c>
     </row>
     <row r="92">
@@ -2253,7 +2253,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>10.40183</v>
+        <v>5.1974</v>
       </c>
     </row>
     <row r="93">
@@ -2261,7 +2261,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>10.40525</v>
+        <v>5.20387</v>
       </c>
     </row>
     <row r="94">
@@ -2269,7 +2269,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>9.87138</v>
+        <v>4.93607</v>
       </c>
     </row>
     <row r="95">
@@ -2277,7 +2277,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>9.86666</v>
+        <v>4.93607</v>
       </c>
     </row>
     <row r="96">
@@ -2285,7 +2285,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>-3.4705</v>
+        <v>-1.73986</v>
       </c>
     </row>
     <row r="97">
@@ -2293,7 +2293,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>-3.4705</v>
+        <v>-1.73986</v>
       </c>
     </row>
     <row r="98">
@@ -2301,7 +2301,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>-2.74484</v>
+        <v>-1.37638</v>
       </c>
     </row>
     <row r="99">
@@ -2309,7 +2309,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>-2.74735</v>
+        <v>-1.37856</v>
       </c>
     </row>
     <row r="100">
@@ -2317,7 +2317,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>-2.26965</v>
+        <v>-1.13227</v>
       </c>
     </row>
     <row r="101">
@@ -2325,7 +2325,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>-2.26998</v>
+        <v>-1.13244</v>
       </c>
     </row>
     <row r="102">
@@ -2333,7 +2333,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>-11.00631</v>
+        <v>-5.50316</v>
       </c>
     </row>
     <row r="103">
@@ -2341,7 +2341,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>-10.99535</v>
+        <v>-5.50316</v>
       </c>
     </row>
     <row r="104">
@@ -2349,7 +2349,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>-3.47162</v>
+        <v>-1.73246</v>
       </c>
     </row>
     <row r="105">
@@ -2357,7 +2357,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>-3.47101</v>
+        <v>-1.73449</v>
       </c>
     </row>
     <row r="106">
@@ -2365,7 +2365,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>0.00764</v>
+        <v>0.00152</v>
       </c>
     </row>
     <row r="107">
@@ -2373,7 +2373,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.00154</v>
+        <v>0.00152</v>
       </c>
     </row>
     <row r="108">
@@ -2381,7 +2381,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.46018</v>
+        <v>-0.23373</v>
       </c>
     </row>
     <row r="109">
@@ -2389,7 +2389,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.45704</v>
+        <v>-0.23499</v>
       </c>
     </row>
     <row r="110">
@@ -2397,7 +2397,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>20.11286</v>
+        <v>10.05213</v>
       </c>
     </row>
     <row r="111">
@@ -2405,7 +2405,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>20.11286</v>
+        <v>10.06072</v>
       </c>
     </row>
     <row r="112">
@@ -2413,7 +2413,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>15.96067</v>
+        <v>7.98034</v>
       </c>
     </row>
     <row r="113">
@@ -2421,7 +2421,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>15.95666</v>
+        <v>7.98112</v>
       </c>
     </row>
     <row r="114">
@@ -2429,7 +2429,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>20.11306</v>
+        <v>10.06071</v>
       </c>
     </row>
     <row r="115">
@@ -2437,7 +2437,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>20.11681</v>
+        <v>10.0546</v>
       </c>
     </row>
     <row r="116">
@@ -2445,7 +2445,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>-1.28204</v>
+        <v>-0.63565</v>
       </c>
     </row>
     <row r="117">
@@ -2453,7 +2453,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>-1.2708</v>
+        <v>-0.6354</v>
       </c>
     </row>
     <row r="118">
@@ -2461,7 +2461,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>-8.97447</v>
+        <v>-4.48724</v>
       </c>
     </row>
     <row r="119">
@@ -2469,7 +2469,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>-8.96909</v>
+        <v>-4.48454</v>
       </c>
     </row>
     <row r="120">
@@ -2477,7 +2477,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>-23.90322</v>
+        <v>-11.95529</v>
       </c>
     </row>
     <row r="121">
@@ -2485,7 +2485,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>-23.91567</v>
+        <v>-11.95358</v>
       </c>
     </row>
     <row r="122">
@@ -2493,7 +2493,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>0.00255</v>
+        <v>8.000000000000001e-05</v>
       </c>
     </row>
     <row r="123">
@@ -2501,7 +2501,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0008</v>
+        <v>0.00159</v>
       </c>
     </row>
     <row r="124">
@@ -2509,7 +2509,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>9.93544</v>
+        <v>4.96697</v>
       </c>
     </row>
     <row r="125">
@@ -2517,7 +2517,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>9.92822</v>
+        <v>4.96411</v>
       </c>
     </row>
     <row r="126">
@@ -2525,7 +2525,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.124</v>
+        <v>-0.062</v>
       </c>
     </row>
     <row r="127">
@@ -2533,7 +2533,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>-23.10069</v>
+        <v>-11.54664</v>
       </c>
     </row>
     <row r="128">
@@ -2541,7 +2541,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>-23.09189</v>
+        <v>-11.54594</v>
       </c>
     </row>
     <row r="129">
@@ -2549,7 +2549,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>-40.85811</v>
+        <v>-20.42894</v>
       </c>
     </row>
     <row r="130">
@@ -2557,7 +2557,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>-40.86173</v>
+        <v>-20.43086</v>
       </c>
     </row>
   </sheetData>
@@ -2596,10 +2596,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>11.102</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>27.93</v>
       </c>
     </row>
     <row r="3">
@@ -2607,10 +2607,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-11.102</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>27.93</v>
       </c>
     </row>
   </sheetData>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.00035</v>
       </c>
     </row>
     <row r="4">
@@ -2674,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.00035</v>
       </c>
     </row>
     <row r="5">
@@ -2693,10 +2693,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>-0.00051</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>-1e-05</v>
       </c>
     </row>
     <row r="7">
@@ -2704,10 +2704,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.00035</v>
       </c>
     </row>
     <row r="8">
@@ -2715,10 +2715,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.00035</v>
       </c>
     </row>
     <row r="9">
@@ -2726,10 +2726,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.00051</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>-1e-05</v>
       </c>
     </row>
     <row r="10">
@@ -2737,10 +2737,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>-0.00173</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.00032</v>
       </c>
     </row>
     <row r="11">
@@ -2748,10 +2748,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.00173</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.00032</v>
       </c>
     </row>
     <row r="12">
@@ -2759,10 +2759,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>-0.00174</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="13">
@@ -2770,10 +2770,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.00174</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="14">
@@ -2781,10 +2781,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-0.00278</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.00017</v>
       </c>
     </row>
     <row r="15">
@@ -2792,10 +2792,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.00278</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.00017</v>
       </c>
     </row>
     <row r="16">
@@ -2803,10 +2803,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-0.00278</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>6.999999999999999e-05</v>
       </c>
     </row>
     <row r="17">
@@ -2814,10 +2814,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.00278</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6.999999999999999e-05</v>
       </c>
     </row>
     <row r="18">
@@ -2825,10 +2825,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>-0.0027</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="19">
@@ -2836,10 +2836,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.0027</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="20">
@@ -2847,10 +2847,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-0.00262</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.00013</v>
       </c>
     </row>
     <row r="21">
@@ -2858,10 +2858,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.00262</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.00013</v>
       </c>
     </row>
     <row r="22">
@@ -2869,10 +2869,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>-0.0024</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-0.00018</v>
       </c>
     </row>
     <row r="23">
@@ -2880,10 +2880,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.0024</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>-0.00018</v>
       </c>
     </row>
     <row r="24">
@@ -2891,10 +2891,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>-0.00212</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>-0.0004</v>
       </c>
     </row>
     <row r="25">
@@ -2902,10 +2902,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.00212</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>-0.0004</v>
       </c>
     </row>
     <row r="26">
@@ -2913,10 +2913,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-0.00202</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="27">
@@ -2924,10 +2924,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.00202</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="28">
@@ -2935,10 +2935,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>-0.0018</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>-0.00072</v>
       </c>
     </row>
     <row r="29">
@@ -2946,10 +2946,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>0.0018</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-0.00072</v>
       </c>
     </row>
     <row r="30">
@@ -2957,10 +2957,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>-0.00152</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>0.00022</v>
       </c>
     </row>
     <row r="31">
@@ -2968,10 +2968,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>0.00152</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>0.00022</v>
       </c>
     </row>
     <row r="32">
@@ -2979,10 +2979,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>-0.00153</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-0.00099</v>
       </c>
     </row>
     <row r="33">
@@ -2990,10 +2990,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>0.00153</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>-0.00099</v>
       </c>
     </row>
     <row r="34">
@@ -3001,10 +3001,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>-0.00129</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>-0.00134</v>
       </c>
     </row>
     <row r="35">
@@ -3012,10 +3012,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>0.00129</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-0.00134</v>
       </c>
     </row>
     <row r="36">
@@ -3023,10 +3023,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>-0.00129</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>-9.000000000000001e-05</v>
       </c>
     </row>
     <row r="37">
@@ -3034,10 +3034,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>0.00129</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>-9.000000000000001e-05</v>
       </c>
     </row>
     <row r="38">
@@ -3045,10 +3045,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-0.00103</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
     </row>
     <row r="39">
@@ -3056,10 +3056,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>0.00103</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
     </row>
     <row r="40">
@@ -3067,10 +3067,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>-0.0009700000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>-0.0018</v>
       </c>
     </row>
     <row r="41">
@@ -3078,10 +3078,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>0.0009700000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-0.0018</v>
       </c>
     </row>
     <row r="42">
@@ -3089,10 +3089,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>-0.0008</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>-0.0009300000000000001</v>
       </c>
     </row>
     <row r="43">
@@ -3100,10 +3100,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>-0.0009300000000000001</v>
       </c>
     </row>
     <row r="44">
@@ -3111,10 +3111,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>-0.00078</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-0.0022</v>
       </c>
     </row>
     <row r="45">
@@ -3122,10 +3122,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>0.00078</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>-0.0022</v>
       </c>
     </row>
     <row r="46">
@@ -3133,10 +3133,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>-0.00057</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>-0.00144</v>
       </c>
     </row>
     <row r="47">
@@ -3144,10 +3144,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>0.00057</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>-0.00144</v>
       </c>
     </row>
     <row r="48">
@@ -3155,10 +3155,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>-0.00046</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>-0.00285</v>
       </c>
     </row>
     <row r="49">
@@ -3166,10 +3166,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>0.00046</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>-0.00285</v>
       </c>
     </row>
     <row r="50">
@@ -3177,10 +3177,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>-0.00036</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>-0.00198</v>
       </c>
     </row>
     <row r="51">
@@ -3188,10 +3188,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>0.00036</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>-0.00198</v>
       </c>
     </row>
     <row r="52">
@@ -3199,10 +3199,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>-0.00032</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>-0.00333</v>
       </c>
     </row>
     <row r="53">
@@ -3210,10 +3210,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>0.00032</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>-0.00333</v>
       </c>
     </row>
     <row r="54">
@@ -3221,10 +3221,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>-0.00018</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>-0.00262</v>
       </c>
     </row>
     <row r="55">
@@ -3232,10 +3232,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>0.00018</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>-0.00262</v>
       </c>
     </row>
     <row r="56">
@@ -3243,10 +3243,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>-0.00011</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>-0.00403</v>
       </c>
     </row>
     <row r="57">
@@ -3254,10 +3254,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>0.00011</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>-0.00403</v>
       </c>
     </row>
     <row r="58">
@@ -3265,10 +3265,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>-5e-05</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>-0.00441</v>
       </c>
     </row>
     <row r="59">
@@ -3276,10 +3276,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>5e-05</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>-0.00441</v>
       </c>
     </row>
     <row r="60">
@@ -3287,10 +3287,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>-4e-05</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>-0.00325</v>
       </c>
     </row>
     <row r="61">
@@ -3298,10 +3298,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>4e-05</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>-0.00325</v>
       </c>
     </row>
     <row r="62">
@@ -3309,10 +3309,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>-0.00469</v>
       </c>
     </row>
     <row r="63">
@@ -3320,10 +3320,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>4e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>-0.00395</v>
       </c>
     </row>
     <row r="64">
@@ -3331,10 +3331,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>-4e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>-0.00395</v>
       </c>
     </row>
     <row r="65">
@@ -3342,10 +3342,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>5e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>-0.0044</v>
       </c>
     </row>
     <row r="66">
@@ -3353,10 +3353,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>-5e-05</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>-0.0044</v>
       </c>
     </row>
     <row r="67">
@@ -3364,10 +3364,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>-0.00469</v>
       </c>
     </row>
   </sheetData>
@@ -3417,7 +3417,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-13.1316</v>
       </c>
     </row>
     <row r="5">
@@ -3425,7 +3425,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>-18.50675</v>
       </c>
     </row>
     <row r="6">
@@ -3449,7 +3449,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-18.50675</v>
       </c>
     </row>
     <row r="9">
@@ -3457,7 +3457,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>-13.1316</v>
       </c>
     </row>
     <row r="10">
@@ -3465,7 +3465,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>11.1104</v>
       </c>
     </row>
     <row r="11">
@@ -3473,7 +3473,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>11.1104</v>
       </c>
     </row>
     <row r="12">
@@ -3481,7 +3481,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>-35.35704</v>
       </c>
     </row>
     <row r="13">
@@ -3489,7 +3489,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-14.80111</v>
       </c>
     </row>
     <row r="14">
@@ -3497,7 +3497,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-14.80112</v>
       </c>
     </row>
     <row r="15">
@@ -3505,7 +3505,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>-35.3554</v>
       </c>
     </row>
     <row r="16">
@@ -3513,7 +3513,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>20.43843</v>
       </c>
     </row>
     <row r="17">
@@ -3521,7 +3521,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>20.43843</v>
       </c>
     </row>
     <row r="18">
@@ -3529,7 +3529,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>-0.00162</v>
       </c>
     </row>
     <row r="19">
@@ -3537,7 +3537,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-0.00162</v>
       </c>
     </row>
     <row r="20">
@@ -3545,7 +3545,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-83.62485</v>
       </c>
     </row>
     <row r="21">
@@ -3553,7 +3553,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-83.62485</v>
       </c>
     </row>
     <row r="22">
@@ -3561,7 +3561,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>36.99839</v>
       </c>
     </row>
     <row r="23">
@@ -3569,7 +3569,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>36.99839</v>
       </c>
     </row>
     <row r="24">
@@ -3577,7 +3577,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>20.43304</v>
       </c>
     </row>
     <row r="25">
@@ -3585,7 +3585,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>20.43304</v>
       </c>
     </row>
     <row r="26">
@@ -3593,7 +3593,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-24.74865</v>
       </c>
     </row>
     <row r="27">
@@ -3601,7 +3601,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>-24.74865</v>
       </c>
     </row>
     <row r="28">
@@ -3609,7 +3609,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>-84.16305</v>
       </c>
     </row>
     <row r="29">
@@ -3617,7 +3617,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-84.16069</v>
       </c>
     </row>
     <row r="30">
@@ -3625,7 +3625,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>20.34366</v>
       </c>
     </row>
     <row r="31">
@@ -3633,7 +3633,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>20.34814</v>
       </c>
     </row>
     <row r="32">
@@ -3641,7 +3641,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>37.23774</v>
       </c>
     </row>
     <row r="33">
@@ -3649,7 +3649,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>37.23774</v>
       </c>
     </row>
     <row r="34">
@@ -3657,7 +3657,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>-0.00251</v>
       </c>
     </row>
     <row r="35">
@@ -3665,7 +3665,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-0.00251</v>
       </c>
     </row>
     <row r="36">
@@ -3673,7 +3673,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>-44.06427</v>
       </c>
     </row>
     <row r="37">
@@ -3681,7 +3681,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>-44.06427</v>
       </c>
     </row>
     <row r="38">
@@ -3689,7 +3689,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-28.02459</v>
       </c>
     </row>
     <row r="39">
@@ -3697,7 +3697,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>-28.02459</v>
       </c>
     </row>
     <row r="40">
@@ -3705,7 +3705,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>-44.05956</v>
       </c>
     </row>
     <row r="41">
@@ -3713,7 +3713,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-44.06671</v>
       </c>
     </row>
     <row r="42">
@@ -3721,7 +3721,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>37.23774</v>
       </c>
     </row>
     <row r="43">
@@ -3729,7 +3729,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>37.23774</v>
       </c>
     </row>
     <row r="44">
@@ -3737,7 +3737,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>-0.00029</v>
       </c>
     </row>
     <row r="45">
@@ -3745,7 +3745,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>-0.00029</v>
       </c>
     </row>
     <row r="46">
@@ -3753,7 +3753,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>9.867050000000001</v>
       </c>
     </row>
     <row r="47">
@@ -3761,7 +3761,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>9.86796</v>
       </c>
     </row>
     <row r="48">
@@ -3769,7 +3769,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>-35.8229</v>
       </c>
     </row>
     <row r="49">
@@ -3777,7 +3777,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>-35.8229</v>
       </c>
     </row>
     <row r="50">
@@ -3785,7 +3785,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>-13.36456</v>
       </c>
     </row>
     <row r="51">
@@ -3793,7 +3793,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>-13.36485</v>
       </c>
     </row>
     <row r="52">
@@ -3801,7 +3801,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>12.88911</v>
       </c>
     </row>
     <row r="53">
@@ -3809,7 +3809,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>12.88911</v>
       </c>
     </row>
     <row r="54">
@@ -3817,7 +3817,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>-4.56419</v>
       </c>
     </row>
     <row r="55">
@@ -3825,7 +3825,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>-4.56624</v>
       </c>
     </row>
     <row r="56">
@@ -3833,7 +3833,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>-35.82537</v>
       </c>
     </row>
     <row r="57">
@@ -3841,7 +3841,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>-35.82537</v>
       </c>
     </row>
     <row r="58">
@@ -3849,7 +3849,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>0.00378</v>
       </c>
     </row>
     <row r="59">
@@ -3857,7 +3857,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>-0.00047</v>
       </c>
     </row>
     <row r="60">
@@ -3865,7 +3865,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>12.02634</v>
       </c>
     </row>
     <row r="61">
@@ -3873,7 +3873,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>12.02702</v>
       </c>
     </row>
     <row r="62">
@@ -3881,7 +3881,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>-30.72857</v>
       </c>
     </row>
     <row r="63">
@@ -3889,7 +3889,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>-30.71585</v>
       </c>
     </row>
     <row r="64">
@@ -3897,7 +3897,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>2.0343</v>
       </c>
     </row>
     <row r="65">
@@ -3905,7 +3905,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>2.03007</v>
       </c>
     </row>
     <row r="66">
@@ -3913,7 +3913,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>-3.23843</v>
       </c>
     </row>
     <row r="67">
@@ -3921,7 +3921,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>-3.24054</v>
       </c>
     </row>
     <row r="68">
@@ -3929,7 +3929,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>-6.50122</v>
       </c>
     </row>
     <row r="69">
@@ -3937,7 +3937,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>-6.49723</v>
       </c>
     </row>
     <row r="70">
@@ -3945,7 +3945,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>11.18288</v>
       </c>
     </row>
     <row r="71">
@@ -3953,7 +3953,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>11.18288</v>
       </c>
     </row>
     <row r="72">
@@ -3961,7 +3961,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>-30.71712</v>
       </c>
     </row>
     <row r="73">
@@ -3969,7 +3969,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>-30.72179</v>
       </c>
     </row>
     <row r="74">
@@ -3977,7 +3977,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>-0.00256</v>
       </c>
     </row>
     <row r="75">
@@ -3985,7 +3985,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>-0.00174</v>
       </c>
     </row>
     <row r="76">
@@ -3993,7 +3993,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>13.39003</v>
       </c>
     </row>
     <row r="77">
@@ -4001,7 +4001,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>13.39005</v>
       </c>
     </row>
     <row r="78">
@@ -4009,7 +4009,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>5.16496</v>
       </c>
     </row>
     <row r="79">
@@ -4017,7 +4017,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>5.16687</v>
       </c>
     </row>
     <row r="80">
@@ -4025,7 +4025,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>-21.19591</v>
       </c>
     </row>
     <row r="81">
@@ -4033,7 +4033,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>-21.20061</v>
       </c>
     </row>
     <row r="82">
@@ -4041,7 +4041,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>-3.28202</v>
       </c>
     </row>
     <row r="83">
@@ -4049,7 +4049,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>-3.27294</v>
       </c>
     </row>
     <row r="84">
@@ -4057,7 +4057,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>8.25221</v>
       </c>
     </row>
     <row r="85">
@@ -4065,7 +4065,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>8.25221</v>
       </c>
     </row>
     <row r="86">
@@ -4073,7 +4073,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>-8.41638</v>
       </c>
     </row>
     <row r="87">
@@ -4081,7 +4081,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>-8.41459</v>
       </c>
     </row>
     <row r="88">
@@ -4089,7 +4089,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>-21.20109</v>
       </c>
     </row>
     <row r="89">
@@ -4097,7 +4097,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>-21.20109</v>
       </c>
     </row>
     <row r="90">
@@ -4105,7 +4105,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>-0.0009700000000000001</v>
       </c>
     </row>
     <row r="91">
@@ -4113,7 +4113,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>0.00289</v>
       </c>
     </row>
     <row r="92">
@@ -4121,7 +4121,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>10.40183</v>
       </c>
     </row>
     <row r="93">
@@ -4129,7 +4129,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>10.40525</v>
       </c>
     </row>
     <row r="94">
@@ -4137,7 +4137,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>9.87138</v>
       </c>
     </row>
     <row r="95">
@@ -4145,7 +4145,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>9.86666</v>
       </c>
     </row>
     <row r="96">
@@ -4153,7 +4153,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>-3.4705</v>
       </c>
     </row>
     <row r="97">
@@ -4161,7 +4161,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>-3.4705</v>
       </c>
     </row>
     <row r="98">
@@ -4169,7 +4169,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>-2.74484</v>
       </c>
     </row>
     <row r="99">
@@ -4177,7 +4177,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>-2.74735</v>
       </c>
     </row>
     <row r="100">
@@ -4185,7 +4185,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>-2.26965</v>
       </c>
     </row>
     <row r="101">
@@ -4193,7 +4193,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>-2.26998</v>
       </c>
     </row>
     <row r="102">
@@ -4201,7 +4201,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>-11.00631</v>
       </c>
     </row>
     <row r="103">
@@ -4209,7 +4209,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>-10.99535</v>
       </c>
     </row>
     <row r="104">
@@ -4217,7 +4217,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>-3.47162</v>
       </c>
     </row>
     <row r="105">
@@ -4225,7 +4225,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>-3.47101</v>
       </c>
     </row>
     <row r="106">
@@ -4233,7 +4233,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>0.00764</v>
       </c>
     </row>
     <row r="107">
@@ -4241,7 +4241,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>-0.00154</v>
       </c>
     </row>
     <row r="108">
@@ -4249,7 +4249,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>-0.46018</v>
       </c>
     </row>
     <row r="109">
@@ -4257,7 +4257,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>-0.45704</v>
       </c>
     </row>
     <row r="110">
@@ -4265,7 +4265,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>20.11286</v>
       </c>
     </row>
     <row r="111">
@@ -4273,7 +4273,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>20.11286</v>
       </c>
     </row>
     <row r="112">
@@ -4281,7 +4281,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>15.96067</v>
       </c>
     </row>
     <row r="113">
@@ -4289,7 +4289,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>15.95666</v>
       </c>
     </row>
     <row r="114">
@@ -4297,7 +4297,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>20.11306</v>
       </c>
     </row>
     <row r="115">
@@ -4305,7 +4305,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>20.11681</v>
       </c>
     </row>
     <row r="116">
@@ -4313,7 +4313,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>-1.28204</v>
       </c>
     </row>
     <row r="117">
@@ -4321,7 +4321,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>-1.2708</v>
       </c>
     </row>
     <row r="118">
@@ -4329,7 +4329,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>-8.97447</v>
       </c>
     </row>
     <row r="119">
@@ -4337,7 +4337,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>-8.96909</v>
       </c>
     </row>
     <row r="120">
@@ -4345,7 +4345,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>-23.90322</v>
       </c>
     </row>
     <row r="121">
@@ -4353,7 +4353,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>-23.91567</v>
       </c>
     </row>
     <row r="122">
@@ -4361,7 +4361,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>0.00255</v>
       </c>
     </row>
     <row r="123">
@@ -4369,7 +4369,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="124">
@@ -4377,7 +4377,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>9.93544</v>
       </c>
     </row>
     <row r="125">
@@ -4385,7 +4385,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>9.92822</v>
       </c>
     </row>
     <row r="126">
@@ -4393,7 +4393,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v>-0.124</v>
       </c>
     </row>
     <row r="127">
@@ -4401,7 +4401,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>-23.10069</v>
       </c>
     </row>
     <row r="128">
@@ -4409,7 +4409,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>-23.09189</v>
       </c>
     </row>
     <row r="129">
@@ -4417,7 +4417,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>-40.85811</v>
       </c>
     </row>
     <row r="130">
@@ -4425,7 +4425,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>-40.86173</v>
       </c>
     </row>
   </sheetData>
@@ -8200,10 +8200,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>-79.003</v>
+        <v>3.554</v>
       </c>
       <c r="C2" t="n">
-        <v>-89.82899999999999</v>
+        <v>13.74</v>
       </c>
     </row>
     <row r="3">
@@ -8211,10 +8211,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.071</v>
+        <v>-3.554</v>
       </c>
       <c r="C3" t="n">
-        <v>-29.071</v>
+        <v>13.74</v>
       </c>
     </row>
   </sheetData>
@@ -13924,7 +13924,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.00364</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="4">
@@ -13935,7 +13935,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00122</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="5">
@@ -13954,7 +13954,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.00513</v>
+        <v>-0.00013</v>
       </c>
       <c r="C6" t="n">
         <v>-1e-05</v>
@@ -13965,10 +13965,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.00508</v>
+        <v>-0.00013</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.00364</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="8">
@@ -13976,10 +13976,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.00163</v>
+        <v>0.00013</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00122</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="9">
@@ -13987,10 +13987,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.00163</v>
+        <v>0.00013</v>
       </c>
       <c r="C9" t="n">
-        <v>2e-05</v>
+        <v>-1e-05</v>
       </c>
     </row>
     <row r="10">
@@ -13998,10 +13998,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.01686</v>
+        <v>-0.00045</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.00344</v>
+        <v>8.000000000000001e-05</v>
       </c>
     </row>
     <row r="11">
@@ -14009,10 +14009,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.00524</v>
+        <v>0.00045</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00121</v>
+        <v>8.000000000000001e-05</v>
       </c>
     </row>
     <row r="12">
@@ -14020,10 +14020,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01706</v>
+        <v>-0.00046</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.00045</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
@@ -14031,10 +14031,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.00531</v>
+        <v>0.00046</v>
       </c>
       <c r="C13" t="n">
-        <v>9.000000000000001e-05</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="14">
@@ -14042,10 +14042,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.02606</v>
+        <v>-0.00077</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.00249</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="15">
@@ -14053,10 +14053,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.00847</v>
+        <v>0.00077</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00119</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="16">
@@ -14064,10 +14064,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.02617</v>
+        <v>-0.00077</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.00088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -14075,10 +14075,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0086</v>
+        <v>0.00077</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -14086,10 +14086,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.02731</v>
+        <v>-0.00074</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.00221</v>
+        <v>-1e-05</v>
       </c>
     </row>
     <row r="19">
@@ -14097,10 +14097,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0105</v>
+        <v>0.00074</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0018</v>
+        <v>-1e-05</v>
       </c>
     </row>
     <row r="20">
@@ -14108,10 +14108,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.02801</v>
+        <v>-0.00072</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0014</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="21">
@@ -14119,10 +14119,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.01174</v>
+        <v>0.00072</v>
       </c>
       <c r="C21" t="n">
-        <v>0.00022</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="22">
@@ -14130,10 +14130,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.02657</v>
+        <v>-0.00066</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.00154</v>
+        <v>-8.000000000000001e-05</v>
       </c>
     </row>
     <row r="23">
@@ -14141,10 +14141,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01221</v>
+        <v>0.00066</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00271</v>
+        <v>-8.000000000000001e-05</v>
       </c>
     </row>
     <row r="24">
@@ -14152,10 +14152,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0261</v>
+        <v>-0.00058</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.00102</v>
+        <v>-0.00014</v>
       </c>
     </row>
     <row r="25">
@@ -14163,10 +14163,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.01393</v>
+        <v>0.00058</v>
       </c>
       <c r="C25" t="n">
-        <v>0.00362</v>
+        <v>-0.00014</v>
       </c>
     </row>
     <row r="26">
@@ -14174,10 +14174,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.02616</v>
+        <v>-0.00055</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.00195</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="27">
@@ -14185,10 +14185,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.01461</v>
+        <v>0.00055</v>
       </c>
       <c r="C27" t="n">
-        <v>0.00028</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="28">
@@ -14196,7 +14196,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.02537</v>
+        <v>-0.00049</v>
       </c>
       <c r="C28" t="n">
         <v>-0.00023</v>
@@ -14207,10 +14207,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01562</v>
+        <v>0.00049</v>
       </c>
       <c r="C29" t="n">
-        <v>0.00498</v>
+        <v>-0.00023</v>
       </c>
     </row>
     <row r="30">
@@ -14218,10 +14218,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.02476</v>
+        <v>-0.00041</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.0021</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="31">
@@ -14229,10 +14229,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01677</v>
+        <v>0.00041</v>
       </c>
       <c r="C31" t="n">
-        <v>0.00033</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="32">
@@ -14240,10 +14240,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02475</v>
+        <v>-0.00041</v>
       </c>
       <c r="C32" t="n">
-        <v>0.00043</v>
+        <v>-0.0003</v>
       </c>
     </row>
     <row r="33">
@@ -14251,10 +14251,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.01692</v>
+        <v>0.00041</v>
       </c>
       <c r="C33" t="n">
-        <v>0.00603</v>
+        <v>-0.0003</v>
       </c>
     </row>
     <row r="34">
@@ -14262,10 +14262,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0242</v>
+        <v>-0.00034</v>
       </c>
       <c r="C34" t="n">
-        <v>0.00124</v>
+        <v>-0.0004</v>
       </c>
     </row>
     <row r="35">
@@ -14273,10 +14273,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.01796</v>
+        <v>0.00034</v>
       </c>
       <c r="C35" t="n">
-        <v>0.00724</v>
+        <v>-0.0004</v>
       </c>
     </row>
     <row r="36">
@@ -14284,10 +14284,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.02427</v>
+        <v>-0.00034</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.00158</v>
+        <v>-5e-05</v>
       </c>
     </row>
     <row r="37">
@@ -14295,10 +14295,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.01794</v>
+        <v>0.00034</v>
       </c>
       <c r="C37" t="n">
-        <v>0.00215</v>
+        <v>-5e-05</v>
       </c>
     </row>
     <row r="38">
@@ -14306,10 +14306,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.02364</v>
+        <v>-0.00027</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.0006400000000000001</v>
+        <v>-0.00017</v>
       </c>
     </row>
     <row r="39">
@@ -14317,10 +14317,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.01894</v>
+        <v>0.00027</v>
       </c>
       <c r="C39" t="n">
-        <v>0.004</v>
+        <v>-0.00017</v>
       </c>
     </row>
     <row r="40">
@@ -14328,10 +14328,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.02344</v>
+        <v>-0.00025</v>
       </c>
       <c r="C40" t="n">
-        <v>0.00232</v>
+        <v>-0.00053</v>
       </c>
     </row>
     <row r="41">
@@ -14339,10 +14339,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.01921</v>
+        <v>0.00025</v>
       </c>
       <c r="C41" t="n">
-        <v>0.00868</v>
+        <v>-0.00053</v>
       </c>
     </row>
     <row r="42">
@@ -14350,10 +14350,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.02307</v>
+        <v>-0.00021</v>
       </c>
       <c r="C42" t="n">
-        <v>0.00031</v>
+        <v>-0.00029</v>
       </c>
     </row>
     <row r="43">
@@ -14361,10 +14361,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.01976</v>
+        <v>0.00021</v>
       </c>
       <c r="C43" t="n">
-        <v>0.00577</v>
+        <v>-0.00029</v>
       </c>
     </row>
     <row r="44">
@@ -14372,10 +14372,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.023</v>
+        <v>-0.0002</v>
       </c>
       <c r="C44" t="n">
-        <v>0.00325</v>
+        <v>-0.0006400000000000001</v>
       </c>
     </row>
     <row r="45">
@@ -14383,10 +14383,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.01982</v>
+        <v>0.0002</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0097</v>
+        <v>-0.0006400000000000001</v>
       </c>
     </row>
     <row r="46">
@@ -14394,10 +14394,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.02252</v>
+        <v>-0.00014</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0015</v>
+        <v>-0.00043</v>
       </c>
     </row>
     <row r="47">
@@ -14405,10 +14405,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.02042</v>
+        <v>0.00014</v>
       </c>
       <c r="C47" t="n">
-        <v>0.00757</v>
+        <v>-0.00043</v>
       </c>
     </row>
     <row r="48">
@@ -14416,10 +14416,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.02229</v>
+        <v>-0.00012</v>
       </c>
       <c r="C48" t="n">
-        <v>0.00473</v>
+        <v>-0.00081</v>
       </c>
     </row>
     <row r="49">
@@ -14427,10 +14427,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.02064</v>
+        <v>0.00012</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01105</v>
+        <v>-0.00081</v>
       </c>
     </row>
     <row r="50">
@@ -14438,10 +14438,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.02203</v>
+        <v>-9.000000000000001e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>0.00273</v>
+        <v>-0.00058</v>
       </c>
     </row>
     <row r="51">
@@ -14449,10 +14449,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.02087</v>
+        <v>9.000000000000001e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>0.009140000000000001</v>
+        <v>-0.00058</v>
       </c>
     </row>
     <row r="52">
@@ -14460,10 +14460,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0.02197</v>
+        <v>-8.000000000000001e-05</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0059</v>
+        <v>-0.0009300000000000001</v>
       </c>
     </row>
     <row r="53">
@@ -14471,10 +14471,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0.02091</v>
+        <v>8.000000000000001e-05</v>
       </c>
       <c r="C53" t="n">
-        <v>0.01167</v>
+        <v>-0.0009300000000000001</v>
       </c>
     </row>
     <row r="54">
@@ -14482,10 +14482,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0216</v>
+        <v>-4e-05</v>
       </c>
       <c r="C54" t="n">
-        <v>0.00418</v>
+        <v>-0.00075</v>
       </c>
     </row>
     <row r="55">
@@ -14493,10 +14493,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.02116</v>
+        <v>4e-05</v>
       </c>
       <c r="C55" t="n">
-        <v>0.01063</v>
+        <v>-0.00075</v>
       </c>
     </row>
     <row r="56">
@@ -14504,10 +14504,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0.02147</v>
+        <v>-3e-05</v>
       </c>
       <c r="C56" t="n">
-        <v>0.00767</v>
+        <v>-0.00111</v>
       </c>
     </row>
     <row r="57">
@@ -14515,10 +14515,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.02117</v>
+        <v>3e-05</v>
       </c>
       <c r="C57" t="n">
-        <v>0.01215</v>
+        <v>-0.00111</v>
       </c>
     </row>
     <row r="58">
@@ -14526,10 +14526,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0.02133</v>
+        <v>-1e-05</v>
       </c>
       <c r="C58" t="n">
-        <v>0.009090000000000001</v>
+        <v>-0.0012</v>
       </c>
     </row>
     <row r="59">
@@ -14537,10 +14537,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.02119</v>
+        <v>1e-05</v>
       </c>
       <c r="C59" t="n">
-        <v>0.01169</v>
+        <v>-0.0012</v>
       </c>
     </row>
     <row r="60">
@@ -14548,10 +14548,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0.02125</v>
+        <v>-1e-05</v>
       </c>
       <c r="C60" t="n">
-        <v>0.00568</v>
+        <v>-0.00091</v>
       </c>
     </row>
     <row r="61">
@@ -14559,10 +14559,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0.02123</v>
+        <v>1e-05</v>
       </c>
       <c r="C61" t="n">
-        <v>0.01157</v>
+        <v>-0.00091</v>
       </c>
     </row>
     <row r="62">
@@ -14570,10 +14570,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0.02117</v>
+        <v>-0</v>
       </c>
       <c r="C62" t="n">
-        <v>0.01074</v>
+        <v>-0.00127</v>
       </c>
     </row>
     <row r="63">
@@ -14581,10 +14581,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.021</v>
+        <v>1e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>0.00741</v>
+        <v>-0.00109</v>
       </c>
     </row>
     <row r="64">
@@ -14592,10 +14592,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>0.02118</v>
+        <v>-1e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>0.01214</v>
+        <v>-0.00109</v>
       </c>
     </row>
     <row r="65">
@@ -14603,10 +14603,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0.02086</v>
+        <v>1e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>0.009050000000000001</v>
+        <v>-0.0012</v>
       </c>
     </row>
     <row r="66">
@@ -14614,10 +14614,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0.02099</v>
+        <v>-1e-05</v>
       </c>
       <c r="C66" t="n">
-        <v>0.01171</v>
+        <v>-0.0012</v>
       </c>
     </row>
     <row r="67">
@@ -14625,10 +14625,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0.02088</v>
+        <v>-0</v>
       </c>
       <c r="C67" t="n">
-        <v>0.01074</v>
+        <v>-0.00127</v>
       </c>
     </row>
   </sheetData>
@@ -16493,7 +16493,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>-15.5124</v>
+        <v>-8.828799999999999</v>
       </c>
     </row>
     <row r="5">
@@ -16501,7 +16501,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>131.6761</v>
+        <v>-5.92026</v>
       </c>
     </row>
     <row r="6">
@@ -16509,7 +16509,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.0992</v>
       </c>
     </row>
     <row r="7">
@@ -16517,7 +16517,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.0992</v>
       </c>
     </row>
     <row r="8">
@@ -16525,7 +16525,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.78362</v>
+        <v>-5.92026</v>
       </c>
     </row>
     <row r="9">
@@ -16533,7 +16533,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>30.504</v>
+        <v>-8.828799999999999</v>
       </c>
     </row>
     <row r="10">
@@ -16541,7 +16541,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>-79.14507</v>
+        <v>3.5712</v>
       </c>
     </row>
     <row r="11">
@@ -16549,7 +16549,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>1.07467</v>
+        <v>3.5712</v>
       </c>
     </row>
     <row r="12">
@@ -16557,7 +16557,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>230.79751</v>
+        <v>-11.31587</v>
       </c>
     </row>
     <row r="13">
@@ -16565,7 +16565,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>105.33337</v>
+        <v>-4.33812</v>
       </c>
     </row>
     <row r="14">
@@ -16573,7 +16573,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.429</v>
+        <v>-4.33812</v>
       </c>
     </row>
     <row r="15">
@@ -16581,7 +16581,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>-3.41473</v>
+        <v>-11.31587</v>
       </c>
     </row>
     <row r="16">
@@ -16589,7 +16589,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>-234.58643</v>
+        <v>2.2913</v>
       </c>
     </row>
     <row r="17">
@@ -16597,7 +16597,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.73339</v>
+        <v>2.2913</v>
       </c>
     </row>
     <row r="18">
@@ -16605,7 +16605,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>-13.58244</v>
+        <v>0.00106</v>
       </c>
     </row>
     <row r="19">
@@ -16613,7 +16613,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.01352</v>
+        <v>0.00106</v>
       </c>
     </row>
     <row r="20">
@@ -16621,7 +16621,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>512.64638</v>
+        <v>-25.77641</v>
       </c>
     </row>
     <row r="21">
@@ -16629,7 +16629,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>-8.06541</v>
+        <v>-25.77641</v>
       </c>
     </row>
     <row r="22">
@@ -16637,7 +16637,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>-196.63732</v>
+        <v>11.84058</v>
       </c>
     </row>
     <row r="23">
@@ -16645,7 +16645,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>3.57067</v>
+        <v>11.84058</v>
       </c>
     </row>
     <row r="24">
@@ -16653,7 +16653,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>-235.43287</v>
+        <v>2.61478</v>
       </c>
     </row>
     <row r="25">
@@ -16661,7 +16661,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>33.73878</v>
+        <v>2.61478</v>
       </c>
     </row>
     <row r="26">
@@ -16669,7 +16669,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>151.67122</v>
+        <v>-7.55988</v>
       </c>
     </row>
     <row r="27">
@@ -16677,7 +16677,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>-2.38962</v>
+        <v>-7.54346</v>
       </c>
     </row>
     <row r="28">
@@ -16685,7 +16685,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>515.9507</v>
+        <v>-25.67927</v>
       </c>
     </row>
     <row r="29">
@@ -16693,7 +16693,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>-8.122159999999999</v>
+        <v>-25.67927</v>
       </c>
     </row>
     <row r="30">
@@ -16701,7 +16701,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>-170.08295</v>
+        <v>5.94925</v>
       </c>
     </row>
     <row r="31">
@@ -16709,7 +16709,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>1.96317</v>
+        <v>5.95373</v>
       </c>
     </row>
     <row r="32">
@@ -16717,7 +16717,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>-275.39322</v>
+        <v>9.035830000000001</v>
       </c>
     </row>
     <row r="33">
@@ -16725,7 +16725,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>35.35617</v>
+        <v>9.035830000000001</v>
       </c>
     </row>
     <row r="34">
@@ -16733,7 +16733,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>-35.00959</v>
+        <v>-0.00178</v>
       </c>
     </row>
     <row r="35">
@@ -16741,7 +16741,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.0002</v>
+        <v>0.0047</v>
       </c>
     </row>
     <row r="36">
@@ -16749,7 +16749,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>192.28606</v>
+        <v>-13.47458</v>
       </c>
     </row>
     <row r="37">
@@ -16757,7 +16757,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>-4.25509</v>
+        <v>-13.4784</v>
       </c>
     </row>
     <row r="38">
@@ -16765,7 +16765,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>231.43605</v>
+        <v>-8.1059</v>
       </c>
     </row>
     <row r="39">
@@ -16773,7 +16773,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>-2.70439</v>
+        <v>-8.104660000000001</v>
       </c>
     </row>
     <row r="40">
@@ -16781,7 +16781,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>192.29258</v>
+        <v>-13.21205</v>
       </c>
     </row>
     <row r="41">
@@ -16789,7 +16789,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>-4.24818</v>
+        <v>-13.2192</v>
       </c>
     </row>
     <row r="42">
@@ -16797,7 +16797,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>-296.98</v>
+        <v>9.402430000000001</v>
       </c>
     </row>
     <row r="43">
@@ -16805,7 +16805,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>35.35617</v>
+        <v>9.402430000000001</v>
       </c>
     </row>
     <row r="44">
@@ -16813,7 +16813,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.00062</v>
+        <v>0.16781</v>
       </c>
     </row>
     <row r="45">
@@ -16821,7 +16821,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.00017</v>
+        <v>0.16781</v>
       </c>
     </row>
     <row r="46">
@@ -16829,7 +16829,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>-115.9664</v>
+        <v>2.73214</v>
       </c>
     </row>
     <row r="47">
@@ -16837,7 +16837,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.95166</v>
+        <v>2.73306</v>
       </c>
     </row>
     <row r="48">
@@ -16845,7 +16845,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>107.70857</v>
+        <v>-10.19693</v>
       </c>
     </row>
     <row r="49">
@@ -16853,7 +16853,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>-14.07533</v>
+        <v>-10.18684</v>
       </c>
     </row>
     <row r="50">
@@ -16861,7 +16861,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>100.23746</v>
+        <v>-3.14326</v>
       </c>
     </row>
     <row r="51">
@@ -16869,7 +16869,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>-21.26627</v>
+        <v>-3.14356</v>
       </c>
     </row>
     <row r="52">
@@ -16877,7 +16877,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>-102.80289</v>
+        <v>3.24467</v>
       </c>
     </row>
     <row r="53">
@@ -16885,7 +16885,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>33.01156</v>
+        <v>3.24467</v>
       </c>
     </row>
     <row r="54">
@@ -16893,7 +16893,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>45.86394</v>
+        <v>-1.56691</v>
       </c>
     </row>
     <row r="55">
@@ -16901,7 +16901,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>22.543</v>
+        <v>-1.56739</v>
       </c>
     </row>
     <row r="56">
@@ -16909,7 +16909,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>107.71206</v>
+        <v>-9.911379999999999</v>
       </c>
     </row>
     <row r="57">
@@ -16917,7 +16917,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>-14.07804</v>
+        <v>-9.91859</v>
       </c>
     </row>
     <row r="58">
@@ -16925,7 +16925,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.00613</v>
+        <v>0.23077</v>
       </c>
     </row>
     <row r="59">
@@ -16933,7 +16933,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.00285</v>
+        <v>0.22798</v>
       </c>
     </row>
     <row r="60">
@@ -16941,7 +16941,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>-90.35472</v>
+        <v>2.83078</v>
       </c>
     </row>
     <row r="61">
@@ -16949,7 +16949,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>26.03945</v>
+        <v>2.83162</v>
       </c>
     </row>
     <row r="62">
@@ -16957,7 +16957,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>75.10729000000001</v>
+        <v>-8.00522</v>
       </c>
     </row>
     <row r="63">
@@ -16965,7 +16965,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>-36.23205</v>
+        <v>-8.00647</v>
       </c>
     </row>
     <row r="64">
@@ -16973,7 +16973,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>-29.05141</v>
+        <v>0.6627999999999999</v>
       </c>
     </row>
     <row r="65">
@@ -16981,7 +16981,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>-24.06996</v>
+        <v>0.66194</v>
       </c>
     </row>
     <row r="66">
@@ -16989,7 +16989,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>20.63429</v>
+        <v>-0.4902</v>
       </c>
     </row>
     <row r="67">
@@ -16997,7 +16997,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>3.37746</v>
+        <v>-0.48593</v>
       </c>
     </row>
     <row r="68">
@@ -17005,7 +17005,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>29.08908</v>
+        <v>-1.77551</v>
       </c>
     </row>
     <row r="69">
@@ -17013,7 +17013,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>16.33123</v>
+        <v>-1.76685</v>
       </c>
     </row>
     <row r="70">
@@ -17021,7 +17021,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>-56.61582</v>
+        <v>2.42525</v>
       </c>
     </row>
     <row r="71">
@@ -17029,7 +17029,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>48.45976</v>
+        <v>2.429</v>
       </c>
     </row>
     <row r="72">
@@ -17037,7 +17037,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>75.10496999999999</v>
+        <v>-7.80869</v>
       </c>
     </row>
     <row r="73">
@@ -17045,7 +17045,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>-36.23586</v>
+        <v>-7.80869</v>
       </c>
     </row>
     <row r="74">
@@ -17053,7 +17053,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>0.01006</v>
+        <v>0.22967</v>
       </c>
     </row>
     <row r="75">
@@ -17061,7 +17061,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>-6.999999999999999e-05</v>
+        <v>0.23298</v>
       </c>
     </row>
     <row r="76">
@@ -17069,7 +17069,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>-58.42913</v>
+        <v>2.74281</v>
       </c>
     </row>
     <row r="77">
@@ -17077,7 +17077,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>49.0896</v>
+        <v>2.73401</v>
       </c>
     </row>
     <row r="78">
@@ -17085,7 +17085,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>-18.89611</v>
+        <v>1.26604</v>
       </c>
     </row>
     <row r="79">
@@ -17093,7 +17093,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>-22.59533</v>
+        <v>1.26691</v>
       </c>
     </row>
     <row r="80">
@@ -17101,7 +17101,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>50.1499</v>
+        <v>-5.14345</v>
       </c>
     </row>
     <row r="81">
@@ -17109,7 +17109,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>-59.03474</v>
+        <v>-5.13466</v>
       </c>
     </row>
     <row r="82">
@@ -17117,7 +17117,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>13.97978</v>
+        <v>-0.39619</v>
       </c>
     </row>
     <row r="83">
@@ -17125,7 +17125,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>0.72127</v>
+        <v>-0.40239</v>
       </c>
     </row>
     <row r="84">
@@ -17133,7 +17133,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>-30.66523</v>
+        <v>1.34962</v>
       </c>
     </row>
     <row r="85">
@@ -17141,7 +17141,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>73.91388000000001</v>
+        <v>1.35355</v>
       </c>
     </row>
     <row r="86">
@@ -17149,7 +17149,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>18.13905</v>
+        <v>-2.02172</v>
       </c>
     </row>
     <row r="87">
@@ -17157,7 +17157,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>9.16901</v>
+        <v>-2.02832</v>
       </c>
     </row>
     <row r="88">
@@ -17165,7 +17165,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>50.15422</v>
+        <v>-5.01962</v>
       </c>
     </row>
     <row r="89">
@@ -17173,7 +17173,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>-59.03129</v>
+        <v>-5.02284</v>
       </c>
     </row>
     <row r="90">
@@ -17181,7 +17181,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.00733</v>
+        <v>0.23522</v>
       </c>
     </row>
     <row r="91">
@@ -17189,7 +17189,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0059</v>
+        <v>0.23135</v>
       </c>
     </row>
     <row r="92">
@@ -17197,7 +17197,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>-33.48404</v>
+        <v>1.60768</v>
       </c>
     </row>
     <row r="93">
@@ -17205,7 +17205,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>74.71948999999999</v>
+        <v>1.59864</v>
       </c>
     </row>
     <row r="94">
@@ -17213,7 +17213,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>-11.82487</v>
+        <v>2.23944</v>
       </c>
     </row>
     <row r="95">
@@ -17221,7 +17221,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>-19.36833</v>
+        <v>2.24492</v>
       </c>
     </row>
     <row r="96">
@@ -17229,7 +17229,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>29.60112</v>
+        <v>-0.6864400000000001</v>
       </c>
     </row>
     <row r="97">
@@ -17237,7 +17237,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>-74.49691</v>
+        <v>-0.6864400000000001</v>
       </c>
     </row>
     <row r="98">
@@ -17245,7 +17245,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>8.097149999999999</v>
+        <v>-0.20108</v>
       </c>
     </row>
     <row r="99">
@@ -17253,7 +17253,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>-2.44368</v>
+        <v>-0.18364</v>
       </c>
     </row>
     <row r="100">
@@ -17261,7 +17261,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>-11.43873</v>
+        <v>-1.4062</v>
       </c>
     </row>
     <row r="101">
@@ -17269,7 +17269,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>97.99697</v>
+        <v>-1.4051</v>
       </c>
     </row>
     <row r="102">
@@ -17277,7 +17277,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>13.9279</v>
+        <v>-2.48866</v>
       </c>
     </row>
     <row r="103">
@@ -17285,7 +17285,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>-2.2435</v>
+        <v>-2.48866</v>
       </c>
     </row>
     <row r="104">
@@ -17293,7 +17293,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>29.60355</v>
+        <v>-0.6243300000000001</v>
       </c>
     </row>
     <row r="105">
@@ -17301,7 +17301,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>-74.49437</v>
+        <v>-0.6243300000000001</v>
       </c>
     </row>
     <row r="106">
@@ -17309,7 +17309,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>0.00151</v>
+        <v>0.23167</v>
       </c>
     </row>
     <row r="107">
@@ -17317,7 +17317,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>0.00673</v>
+        <v>0.23167</v>
       </c>
     </row>
     <row r="108">
@@ -17325,7 +17325,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>-13.91905</v>
+        <v>-1.26315</v>
       </c>
     </row>
     <row r="109">
@@ -17333,7 +17333,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>99.56469</v>
+        <v>-1.25752</v>
       </c>
     </row>
     <row r="110">
@@ -17341,7 +17341,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>-2.55711</v>
+        <v>4.79519</v>
       </c>
     </row>
     <row r="111">
@@ -17349,7 +17349,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>-55.61581</v>
+        <v>4.79519</v>
       </c>
     </row>
     <row r="112">
@@ -17357,7 +17357,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>-13.61938</v>
+        <v>3.55537</v>
       </c>
     </row>
     <row r="113">
@@ -17365,7 +17365,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>-5.99742</v>
+        <v>3.55537</v>
       </c>
     </row>
     <row r="114">
@@ -17373,7 +17373,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>-2.56406</v>
+        <v>4.80613</v>
       </c>
     </row>
     <row r="115">
@@ -17381,7 +17381,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>-55.61022</v>
+        <v>4.81449</v>
       </c>
     </row>
     <row r="116">
@@ -17389,7 +17389,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>2.15126</v>
+        <v>0.20542</v>
       </c>
     </row>
     <row r="117">
@@ -17397,7 +17397,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>-4.68263</v>
+        <v>0.19697</v>
       </c>
     </row>
     <row r="118">
@@ -17405,7 +17405,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>20.33436</v>
+        <v>-1.91344</v>
       </c>
     </row>
     <row r="119">
@@ -17413,7 +17413,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>-26.72307</v>
+        <v>-1.91218</v>
       </c>
     </row>
     <row r="120">
@@ -17421,7 +17421,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>10.57068</v>
+        <v>-6.57464</v>
       </c>
     </row>
     <row r="121">
@@ -17429,7 +17429,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>103.8345</v>
+        <v>-6.57367</v>
       </c>
     </row>
     <row r="122">
@@ -17437,7 +17437,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.00591</v>
+        <v>0.22448</v>
       </c>
     </row>
     <row r="123">
@@ -17445,7 +17445,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>0.00039</v>
+        <v>0.22428</v>
       </c>
     </row>
     <row r="124">
@@ -17453,7 +17453,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>-31.87112</v>
+        <v>2.2627</v>
       </c>
     </row>
     <row r="125">
@@ -17461,7 +17461,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>22.07485</v>
+        <v>2.2684</v>
       </c>
     </row>
     <row r="126">
@@ -17469,7 +17469,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>-3.689</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="127">
@@ -17477,7 +17477,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>9.94797</v>
+        <v>-6.61379</v>
       </c>
     </row>
     <row r="128">
@@ -17485,7 +17485,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>105.75974</v>
+        <v>-6.61309</v>
       </c>
     </row>
     <row r="129">
@@ -17493,7 +17493,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>59.64531</v>
+        <v>-10.56269</v>
       </c>
     </row>
     <row r="130">
@@ -17501,7 +17501,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>59.64292</v>
+        <v>-10.57114</v>
       </c>
     </row>
   </sheetData>
@@ -17540,10 +17540,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.551</v>
+        <v>-79.003</v>
       </c>
       <c r="C2" t="n">
-        <v>13.965</v>
+        <v>-89.82899999999999</v>
       </c>
     </row>
     <row r="3">
@@ -17551,10 +17551,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>-5.551</v>
+        <v>-1.071</v>
       </c>
       <c r="C3" t="n">
-        <v>13.965</v>
+        <v>-29.071</v>
       </c>
     </row>
   </sheetData>
@@ -17607,7 +17607,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00018</v>
+        <v>-0.00364</v>
       </c>
     </row>
     <row r="4">
@@ -17618,7 +17618,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00018</v>
+        <v>0.00122</v>
       </c>
     </row>
     <row r="5">
@@ -17637,7 +17637,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.00025</v>
+        <v>0.00513</v>
       </c>
       <c r="C6" t="n">
         <v>-1e-05</v>
@@ -17648,10 +17648,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.00025</v>
+        <v>0.00508</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00018</v>
+        <v>-0.00364</v>
       </c>
     </row>
     <row r="8">
@@ -17659,10 +17659,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.00025</v>
+        <v>0.00163</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00018</v>
+        <v>0.00122</v>
       </c>
     </row>
     <row r="9">
@@ -17670,10 +17670,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.00025</v>
+        <v>0.00163</v>
       </c>
       <c r="C9" t="n">
-        <v>-1e-05</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="10">
@@ -17681,10 +17681,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.00086</v>
+        <v>0.01686</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00016</v>
+        <v>-0.00344</v>
       </c>
     </row>
     <row r="11">
@@ -17692,10 +17692,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.00086</v>
+        <v>0.00524</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00016</v>
+        <v>0.00121</v>
       </c>
     </row>
     <row r="12">
@@ -17703,10 +17703,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.00087</v>
+        <v>0.01706</v>
       </c>
       <c r="C12" t="n">
-        <v>1e-05</v>
+        <v>-0.00045</v>
       </c>
     </row>
     <row r="13">
@@ -17714,10 +17714,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.00087</v>
+        <v>0.00531</v>
       </c>
       <c r="C13" t="n">
-        <v>1e-05</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="14">
@@ -17725,10 +17725,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.00139</v>
+        <v>0.02606</v>
       </c>
       <c r="C14" t="n">
-        <v>8.000000000000001e-05</v>
+        <v>-0.00249</v>
       </c>
     </row>
     <row r="15">
@@ -17736,10 +17736,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.00139</v>
+        <v>0.00847</v>
       </c>
       <c r="C15" t="n">
-        <v>8.000000000000001e-05</v>
+        <v>0.00119</v>
       </c>
     </row>
     <row r="16">
@@ -17747,10 +17747,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.00139</v>
+        <v>0.02617</v>
       </c>
       <c r="C16" t="n">
-        <v>3e-05</v>
+        <v>-0.00088</v>
       </c>
     </row>
     <row r="17">
@@ -17758,10 +17758,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.00139</v>
+        <v>0.0086</v>
       </c>
       <c r="C17" t="n">
-        <v>3e-05</v>
+        <v>0.00015</v>
       </c>
     </row>
     <row r="18">
@@ -17769,10 +17769,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.00135</v>
+        <v>0.02731</v>
       </c>
       <c r="C18" t="n">
-        <v>2e-05</v>
+        <v>-0.00221</v>
       </c>
     </row>
     <row r="19">
@@ -17780,10 +17780,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.00135</v>
+        <v>0.0105</v>
       </c>
       <c r="C19" t="n">
-        <v>2e-05</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="20">
@@ -17791,10 +17791,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.00131</v>
+        <v>0.02801</v>
       </c>
       <c r="C20" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>-0.0014</v>
       </c>
     </row>
     <row r="21">
@@ -17802,10 +17802,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.00131</v>
+        <v>0.01174</v>
       </c>
       <c r="C21" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.00022</v>
       </c>
     </row>
     <row r="22">
@@ -17813,10 +17813,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.0012</v>
+        <v>0.02657</v>
       </c>
       <c r="C22" t="n">
-        <v>-9.000000000000001e-05</v>
+        <v>-0.00154</v>
       </c>
     </row>
     <row r="23">
@@ -17824,10 +17824,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0012</v>
+        <v>0.01221</v>
       </c>
       <c r="C23" t="n">
-        <v>-9.000000000000001e-05</v>
+        <v>0.00271</v>
       </c>
     </row>
     <row r="24">
@@ -17835,10 +17835,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.00106</v>
+        <v>0.0261</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.0002</v>
+        <v>-0.00102</v>
       </c>
     </row>
     <row r="25">
@@ -17846,10 +17846,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.00106</v>
+        <v>0.01393</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.0002</v>
+        <v>0.00362</v>
       </c>
     </row>
     <row r="26">
@@ -17857,10 +17857,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.00101</v>
+        <v>0.02616</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0001</v>
+        <v>-0.00195</v>
       </c>
     </row>
     <row r="27">
@@ -17868,10 +17868,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.00101</v>
+        <v>0.01461</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0001</v>
+        <v>0.00028</v>
       </c>
     </row>
     <row r="28">
@@ -17879,10 +17879,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.0009</v>
+        <v>0.02537</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.00036</v>
+        <v>-0.00023</v>
       </c>
     </row>
     <row r="29">
@@ -17890,10 +17890,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0009</v>
+        <v>0.01562</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.00036</v>
+        <v>0.00498</v>
       </c>
     </row>
     <row r="30">
@@ -17901,10 +17901,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.00076</v>
+        <v>0.02476</v>
       </c>
       <c r="C30" t="n">
-        <v>0.00011</v>
+        <v>-0.0021</v>
       </c>
     </row>
     <row r="31">
@@ -17912,10 +17912,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.00076</v>
+        <v>0.01677</v>
       </c>
       <c r="C31" t="n">
-        <v>0.00011</v>
+        <v>0.00033</v>
       </c>
     </row>
     <row r="32">
@@ -17923,10 +17923,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.00077</v>
+        <v>0.02475</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.0005</v>
+        <v>0.00043</v>
       </c>
     </row>
     <row r="33">
@@ -17934,10 +17934,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.00077</v>
+        <v>0.01692</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.0005</v>
+        <v>0.00603</v>
       </c>
     </row>
     <row r="34">
@@ -17945,10 +17945,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.00065</v>
+        <v>0.0242</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.00067</v>
+        <v>0.00124</v>
       </c>
     </row>
     <row r="35">
@@ -17956,10 +17956,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.00065</v>
+        <v>0.01796</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.00067</v>
+        <v>0.00724</v>
       </c>
     </row>
     <row r="36">
@@ -17967,10 +17967,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.0006400000000000001</v>
+        <v>0.02427</v>
       </c>
       <c r="C36" t="n">
-        <v>-5e-05</v>
+        <v>-0.00158</v>
       </c>
     </row>
     <row r="37">
@@ -17978,10 +17978,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0006400000000000001</v>
+        <v>0.01794</v>
       </c>
       <c r="C37" t="n">
-        <v>-5e-05</v>
+        <v>0.00215</v>
       </c>
     </row>
     <row r="38">
@@ -17989,10 +17989,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.00052</v>
+        <v>0.02364</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.00025</v>
+        <v>-0.0006400000000000001</v>
       </c>
     </row>
     <row r="39">
@@ -18000,10 +18000,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.00052</v>
+        <v>0.01894</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.00025</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="40">
@@ -18011,10 +18011,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.00048</v>
+        <v>0.02344</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.0009</v>
+        <v>0.00232</v>
       </c>
     </row>
     <row r="41">
@@ -18022,10 +18022,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.00048</v>
+        <v>0.01921</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.0009</v>
+        <v>0.00868</v>
       </c>
     </row>
     <row r="42">
@@ -18033,10 +18033,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.0004</v>
+        <v>0.02307</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.00046</v>
+        <v>0.00031</v>
       </c>
     </row>
     <row r="43">
@@ -18044,10 +18044,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0004</v>
+        <v>0.01976</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.00046</v>
+        <v>0.00577</v>
       </c>
     </row>
     <row r="44">
@@ -18055,10 +18055,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.00039</v>
+        <v>0.023</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.0011</v>
+        <v>0.00325</v>
       </c>
     </row>
     <row r="45">
@@ -18066,10 +18066,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.00039</v>
+        <v>0.01982</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.0011</v>
+        <v>0.0097</v>
       </c>
     </row>
     <row r="46">
@@ -18077,10 +18077,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.00028</v>
+        <v>0.02252</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.00072</v>
+        <v>0.0015</v>
       </c>
     </row>
     <row r="47">
@@ -18088,10 +18088,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.00028</v>
+        <v>0.02042</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.00072</v>
+        <v>0.00757</v>
       </c>
     </row>
     <row r="48">
@@ -18099,10 +18099,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.00023</v>
+        <v>0.02229</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.00143</v>
+        <v>0.00473</v>
       </c>
     </row>
     <row r="49">
@@ -18110,10 +18110,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.00023</v>
+        <v>0.02064</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.00143</v>
+        <v>0.01105</v>
       </c>
     </row>
     <row r="50">
@@ -18121,10 +18121,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.00018</v>
+        <v>0.02203</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.00099</v>
+        <v>0.00273</v>
       </c>
     </row>
     <row r="51">
@@ -18132,10 +18132,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.00018</v>
+        <v>0.02087</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.00099</v>
+        <v>0.009140000000000001</v>
       </c>
     </row>
     <row r="52">
@@ -18143,10 +18143,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.00016</v>
+        <v>0.02197</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.00167</v>
+        <v>0.0059</v>
       </c>
     </row>
     <row r="53">
@@ -18154,10 +18154,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0.00016</v>
+        <v>0.02091</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.00167</v>
+        <v>0.01167</v>
       </c>
     </row>
     <row r="54">
@@ -18165,10 +18165,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>-9.000000000000001e-05</v>
+        <v>0.0216</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.00131</v>
+        <v>0.00418</v>
       </c>
     </row>
     <row r="55">
@@ -18176,10 +18176,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>9.000000000000001e-05</v>
+        <v>0.02116</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.00131</v>
+        <v>0.01063</v>
       </c>
     </row>
     <row r="56">
@@ -18187,10 +18187,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>-6e-05</v>
+        <v>0.02147</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.00202</v>
+        <v>0.00767</v>
       </c>
     </row>
     <row r="57">
@@ -18198,10 +18198,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>6e-05</v>
+        <v>0.02117</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.00202</v>
+        <v>0.01215</v>
       </c>
     </row>
     <row r="58">
@@ -18209,10 +18209,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>-3e-05</v>
+        <v>0.02133</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.00221</v>
+        <v>0.009090000000000001</v>
       </c>
     </row>
     <row r="59">
@@ -18220,10 +18220,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>3e-05</v>
+        <v>0.02119</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.00221</v>
+        <v>0.01169</v>
       </c>
     </row>
     <row r="60">
@@ -18231,10 +18231,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>-2e-05</v>
+        <v>0.02125</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.00162</v>
+        <v>0.00568</v>
       </c>
     </row>
     <row r="61">
@@ -18242,10 +18242,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>2e-05</v>
+        <v>0.02123</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.00162</v>
+        <v>0.01157</v>
       </c>
     </row>
     <row r="62">
@@ -18253,10 +18253,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>-0</v>
+        <v>0.02117</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.00234</v>
+        <v>0.01074</v>
       </c>
     </row>
     <row r="63">
@@ -18264,10 +18264,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>2e-05</v>
+        <v>0.021</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.00198</v>
+        <v>0.00741</v>
       </c>
     </row>
     <row r="64">
@@ -18275,10 +18275,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>-2e-05</v>
+        <v>0.02118</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.00198</v>
+        <v>0.01214</v>
       </c>
     </row>
     <row r="65">
@@ -18286,10 +18286,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>2e-05</v>
+        <v>0.02086</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.0022</v>
+        <v>0.009050000000000001</v>
       </c>
     </row>
     <row r="66">
@@ -18297,10 +18297,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>-2e-05</v>
+        <v>0.02099</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.0022</v>
+        <v>0.01171</v>
       </c>
     </row>
     <row r="67">
@@ -18308,10 +18308,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>-0</v>
+        <v>0.02088</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.00234</v>
+        <v>0.01074</v>
       </c>
     </row>
   </sheetData>
@@ -18361,7 +18361,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>-6.5596</v>
+        <v>-15.5124</v>
       </c>
     </row>
     <row r="5">
@@ -18369,7 +18369,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>-9.249409999999999</v>
+        <v>131.6761</v>
       </c>
     </row>
     <row r="6">
@@ -18393,7 +18393,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>-9.249409999999999</v>
+        <v>-1.78362</v>
       </c>
     </row>
     <row r="9">
@@ -18401,7 +18401,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>-6.5596</v>
+        <v>30.504</v>
       </c>
     </row>
     <row r="10">
@@ -18409,7 +18409,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>5.5552</v>
+        <v>-79.14507</v>
       </c>
     </row>
     <row r="11">
@@ -18417,7 +18417,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>5.5552</v>
+        <v>1.07467</v>
       </c>
     </row>
     <row r="12">
@@ -18425,7 +18425,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>-17.68266</v>
+        <v>230.79751</v>
       </c>
     </row>
     <row r="13">
@@ -18433,7 +18433,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>-7.40606</v>
+        <v>105.33337</v>
       </c>
     </row>
     <row r="14">
@@ -18441,7 +18441,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>-7.40606</v>
+        <v>-1.429</v>
       </c>
     </row>
     <row r="15">
@@ -18449,7 +18449,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>-17.68266</v>
+        <v>-3.41473</v>
       </c>
     </row>
     <row r="16">
@@ -18457,7 +18457,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10.21652</v>
+        <v>-234.58643</v>
       </c>
     </row>
     <row r="17">
@@ -18465,7 +18465,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>10.21652</v>
+        <v>33.73339</v>
       </c>
     </row>
     <row r="18">
@@ -18473,7 +18473,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.00029</v>
+        <v>-13.58244</v>
       </c>
     </row>
     <row r="19">
@@ -18481,7 +18481,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.00029</v>
+        <v>-0.01352</v>
       </c>
     </row>
     <row r="20">
@@ -18489,7 +18489,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>-41.80967</v>
+        <v>512.64638</v>
       </c>
     </row>
     <row r="21">
@@ -18497,7 +18497,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>-41.80967</v>
+        <v>-8.06541</v>
       </c>
     </row>
     <row r="22">
@@ -18505,7 +18505,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>18.50236</v>
+        <v>-196.63732</v>
       </c>
     </row>
     <row r="23">
@@ -18513,7 +18513,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>18.50236</v>
+        <v>3.57067</v>
       </c>
     </row>
     <row r="24">
@@ -18521,7 +18521,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>10.21652</v>
+        <v>-235.43287</v>
       </c>
     </row>
     <row r="25">
@@ -18529,7 +18529,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>10.21652</v>
+        <v>33.73878</v>
       </c>
     </row>
     <row r="26">
@@ -18537,7 +18537,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>-12.36612</v>
+        <v>151.67122</v>
       </c>
     </row>
     <row r="27">
@@ -18545,7 +18545,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>-12.36612</v>
+        <v>-2.38962</v>
       </c>
     </row>
     <row r="28">
@@ -18553,7 +18553,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>-42.07882</v>
+        <v>515.9507</v>
       </c>
     </row>
     <row r="29">
@@ -18561,7 +18561,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>-42.08423</v>
+        <v>-8.122159999999999</v>
       </c>
     </row>
     <row r="30">
@@ -18569,7 +18569,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>10.17441</v>
+        <v>-170.08295</v>
       </c>
     </row>
     <row r="31">
@@ -18577,7 +18577,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>10.17372</v>
+        <v>1.96317</v>
       </c>
     </row>
     <row r="32">
@@ -18585,7 +18585,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>18.61617</v>
+        <v>-275.39322</v>
       </c>
     </row>
     <row r="33">
@@ -18593,7 +18593,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>18.62157</v>
+        <v>35.35617</v>
       </c>
     </row>
     <row r="34">
@@ -18601,7 +18601,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.00632</v>
+        <v>-35.00959</v>
       </c>
     </row>
     <row r="35">
@@ -18609,7 +18609,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.00382</v>
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="36">
@@ -18617,7 +18617,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>-22.0338</v>
+        <v>192.28606</v>
       </c>
     </row>
     <row r="37">
@@ -18625,7 +18625,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>-22.02665</v>
+        <v>-4.25509</v>
       </c>
     </row>
     <row r="38">
@@ -18633,7 +18633,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>-14.01399</v>
+        <v>231.43605</v>
       </c>
     </row>
     <row r="39">
@@ -18641,7 +18641,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>-14.01061</v>
+        <v>-2.70439</v>
       </c>
     </row>
     <row r="40">
@@ -18649,7 +18649,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>-22.03526</v>
+        <v>192.29258</v>
       </c>
     </row>
     <row r="41">
@@ -18657,7 +18657,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>-22.03526</v>
+        <v>-4.24818</v>
       </c>
     </row>
     <row r="42">
@@ -18665,7 +18665,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>18.62157</v>
+        <v>-296.98</v>
       </c>
     </row>
     <row r="43">
@@ -18673,7 +18673,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>18.61617</v>
+        <v>35.35617</v>
       </c>
     </row>
     <row r="44">
@@ -18681,7 +18681,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0015</v>
+        <v>-0.00062</v>
       </c>
     </row>
     <row r="45">
@@ -18689,7 +18689,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0015</v>
+        <v>-0.00017</v>
       </c>
     </row>
     <row r="46">
@@ -18697,7 +18697,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>4.93398</v>
+        <v>-115.9664</v>
       </c>
     </row>
     <row r="47">
@@ -18705,7 +18705,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>4.93398</v>
+        <v>0.95166</v>
       </c>
     </row>
     <row r="48">
@@ -18713,7 +18713,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>-17.91145</v>
+        <v>107.70857</v>
       </c>
     </row>
     <row r="49">
@@ -18721,7 +18721,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>-17.91145</v>
+        <v>-14.07533</v>
       </c>
     </row>
     <row r="50">
@@ -18729,7 +18729,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>-6.67862</v>
+        <v>100.23746</v>
       </c>
     </row>
     <row r="51">
@@ -18737,7 +18737,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>-6.68126</v>
+        <v>-21.26627</v>
       </c>
     </row>
     <row r="52">
@@ -18745,7 +18745,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>6.448</v>
+        <v>-102.80289</v>
       </c>
     </row>
     <row r="53">
@@ -18753,7 +18753,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>6.448</v>
+        <v>33.01156</v>
       </c>
     </row>
     <row r="54">
@@ -18761,7 +18761,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>-2.28043</v>
+        <v>45.86394</v>
       </c>
     </row>
     <row r="55">
@@ -18769,7 +18769,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>-2.28249</v>
+        <v>22.543</v>
       </c>
     </row>
     <row r="56">
@@ -18777,7 +18777,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>-17.90908</v>
+        <v>107.71206</v>
       </c>
     </row>
     <row r="57">
@@ -18785,7 +18785,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>-17.90908</v>
+        <v>-14.07804</v>
       </c>
     </row>
     <row r="58">
@@ -18793,7 +18793,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0.00319</v>
+        <v>-0.00613</v>
       </c>
     </row>
     <row r="59">
@@ -18801,7 +18801,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.00135</v>
+        <v>0.00285</v>
       </c>
     </row>
     <row r="60">
@@ -18809,7 +18809,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>6.0142</v>
+        <v>-90.35472</v>
       </c>
     </row>
     <row r="61">
@@ -18817,7 +18817,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>6.00834</v>
+        <v>26.03945</v>
       </c>
     </row>
     <row r="62">
@@ -18825,7 +18825,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>-15.35793</v>
+        <v>75.10729000000001</v>
       </c>
     </row>
     <row r="63">
@@ -18833,7 +18833,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>-15.36366</v>
+        <v>-36.23205</v>
       </c>
     </row>
     <row r="64">
@@ -18841,7 +18841,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>1.01715</v>
+        <v>-29.05141</v>
       </c>
     </row>
     <row r="65">
@@ -18849,7 +18849,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>1.01633</v>
+        <v>-24.06996</v>
       </c>
     </row>
     <row r="66">
@@ -18857,7 +18857,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>-1.61744</v>
+        <v>20.63429</v>
       </c>
     </row>
     <row r="67">
@@ -18865,7 +18865,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>-1.62561</v>
+        <v>3.37746</v>
       </c>
     </row>
     <row r="68">
@@ -18873,7 +18873,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>-3.24813</v>
+        <v>29.08908</v>
       </c>
     </row>
     <row r="69">
@@ -18881,7 +18881,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>-3.25382</v>
+        <v>16.33123</v>
       </c>
     </row>
     <row r="70">
@@ -18889,7 +18889,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>5.59331</v>
+        <v>-56.61582</v>
       </c>
     </row>
     <row r="71">
@@ -18897,7 +18897,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>5.596</v>
+        <v>48.45976</v>
       </c>
     </row>
     <row r="72">
@@ -18905,7 +18905,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>-15.36323</v>
+        <v>75.10496999999999</v>
       </c>
     </row>
     <row r="73">
@@ -18913,7 +18913,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>-15.35856</v>
+        <v>-36.23586</v>
       </c>
     </row>
     <row r="74">
@@ -18921,7 +18921,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>0.00061</v>
+        <v>0.01006</v>
       </c>
     </row>
     <row r="75">
@@ -18929,7 +18929,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.00276</v>
+        <v>-6.999999999999999e-05</v>
       </c>
     </row>
     <row r="76">
@@ -18937,7 +18937,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>6.69501</v>
+        <v>-58.42913</v>
       </c>
     </row>
     <row r="77">
@@ -18945,7 +18945,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>6.69502</v>
+        <v>49.0896</v>
       </c>
     </row>
     <row r="78">
@@ -18953,7 +18953,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>2.58568</v>
+        <v>-18.89611</v>
       </c>
     </row>
     <row r="79">
@@ -18961,7 +18961,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>2.5807</v>
+        <v>-22.59533</v>
       </c>
     </row>
     <row r="80">
@@ -18969,7 +18969,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>-10.6044</v>
+        <v>50.1499</v>
       </c>
     </row>
     <row r="81">
@@ -18977,7 +18977,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>-10.6003</v>
+        <v>-59.03474</v>
       </c>
     </row>
     <row r="82">
@@ -18985,7 +18985,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>-1.63535</v>
+        <v>13.97978</v>
       </c>
     </row>
     <row r="83">
@@ -18993,7 +18993,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>-1.6393</v>
+        <v>0.72127</v>
       </c>
     </row>
     <row r="84">
@@ -19001,7 +19001,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>4.12953</v>
+        <v>-30.66523</v>
       </c>
     </row>
     <row r="85">
@@ -19009,7 +19009,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>4.12268</v>
+        <v>73.91388000000001</v>
       </c>
     </row>
     <row r="86">
@@ -19017,7 +19017,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>-4.20249</v>
+        <v>18.13905</v>
       </c>
     </row>
     <row r="87">
@@ -19025,7 +19025,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>-4.20729</v>
+        <v>9.16901</v>
       </c>
     </row>
     <row r="88">
@@ -19033,7 +19033,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>-10.59753</v>
+        <v>50.15422</v>
       </c>
     </row>
     <row r="89">
@@ -19041,7 +19041,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>-10.59753</v>
+        <v>-59.03129</v>
       </c>
     </row>
     <row r="90">
@@ -19049,7 +19049,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>0.00145</v>
+        <v>-0.00733</v>
       </c>
     </row>
     <row r="91">
@@ -19057,7 +19057,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>0.00145</v>
+        <v>0.0059</v>
       </c>
     </row>
     <row r="92">
@@ -19065,7 +19065,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>5.1974</v>
+        <v>-33.48404</v>
       </c>
     </row>
     <row r="93">
@@ -19073,7 +19073,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>5.20387</v>
+        <v>74.71948999999999</v>
       </c>
     </row>
     <row r="94">
@@ -19081,7 +19081,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>4.93607</v>
+        <v>-11.82487</v>
       </c>
     </row>
     <row r="95">
@@ -19089,7 +19089,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>4.93607</v>
+        <v>-19.36833</v>
       </c>
     </row>
     <row r="96">
@@ -19097,7 +19097,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>-1.73986</v>
+        <v>29.60112</v>
       </c>
     </row>
     <row r="97">
@@ -19105,7 +19105,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>-1.73986</v>
+        <v>-74.49691</v>
       </c>
     </row>
     <row r="98">
@@ -19113,7 +19113,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>-1.37638</v>
+        <v>8.097149999999999</v>
       </c>
     </row>
     <row r="99">
@@ -19121,7 +19121,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>-1.37856</v>
+        <v>-2.44368</v>
       </c>
     </row>
     <row r="100">
@@ -19129,7 +19129,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>-1.13227</v>
+        <v>-11.43873</v>
       </c>
     </row>
     <row r="101">
@@ -19137,7 +19137,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>-1.13244</v>
+        <v>97.99697</v>
       </c>
     </row>
     <row r="102">
@@ -19145,7 +19145,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>-5.50316</v>
+        <v>13.9279</v>
       </c>
     </row>
     <row r="103">
@@ -19153,7 +19153,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>-5.50316</v>
+        <v>-2.2435</v>
       </c>
     </row>
     <row r="104">
@@ -19161,7 +19161,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>-1.73246</v>
+        <v>29.60355</v>
       </c>
     </row>
     <row r="105">
@@ -19169,7 +19169,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>-1.73449</v>
+        <v>-74.49437</v>
       </c>
     </row>
     <row r="106">
@@ -19177,7 +19177,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>0.00152</v>
+        <v>0.00151</v>
       </c>
     </row>
     <row r="107">
@@ -19185,7 +19185,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>0.00152</v>
+        <v>0.00673</v>
       </c>
     </row>
     <row r="108">
@@ -19193,7 +19193,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.23373</v>
+        <v>-13.91905</v>
       </c>
     </row>
     <row r="109">
@@ -19201,7 +19201,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.23499</v>
+        <v>99.56469</v>
       </c>
     </row>
     <row r="110">
@@ -19209,7 +19209,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>10.05213</v>
+        <v>-2.55711</v>
       </c>
     </row>
     <row r="111">
@@ -19217,7 +19217,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>10.06072</v>
+        <v>-55.61581</v>
       </c>
     </row>
     <row r="112">
@@ -19225,7 +19225,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>7.98034</v>
+        <v>-13.61938</v>
       </c>
     </row>
     <row r="113">
@@ -19233,7 +19233,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>7.98112</v>
+        <v>-5.99742</v>
       </c>
     </row>
     <row r="114">
@@ -19241,7 +19241,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>10.06071</v>
+        <v>-2.56406</v>
       </c>
     </row>
     <row r="115">
@@ -19249,7 +19249,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>10.0546</v>
+        <v>-55.61022</v>
       </c>
     </row>
     <row r="116">
@@ -19257,7 +19257,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.63565</v>
+        <v>2.15126</v>
       </c>
     </row>
     <row r="117">
@@ -19265,7 +19265,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.6354</v>
+        <v>-4.68263</v>
       </c>
     </row>
     <row r="118">
@@ -19273,7 +19273,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>-4.48724</v>
+        <v>20.33436</v>
       </c>
     </row>
     <row r="119">
@@ -19281,7 +19281,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>-4.48454</v>
+        <v>-26.72307</v>
       </c>
     </row>
     <row r="120">
@@ -19289,7 +19289,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>-11.95529</v>
+        <v>10.57068</v>
       </c>
     </row>
     <row r="121">
@@ -19297,7 +19297,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>-11.95358</v>
+        <v>103.8345</v>
       </c>
     </row>
     <row r="122">
@@ -19305,7 +19305,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>8.000000000000001e-05</v>
+        <v>-0.00591</v>
       </c>
     </row>
     <row r="123">
@@ -19313,7 +19313,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>0.00159</v>
+        <v>0.00039</v>
       </c>
     </row>
     <row r="124">
@@ -19321,7 +19321,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>4.96697</v>
+        <v>-31.87112</v>
       </c>
     </row>
     <row r="125">
@@ -19329,7 +19329,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>4.96411</v>
+        <v>22.07485</v>
       </c>
     </row>
     <row r="126">
@@ -19337,7 +19337,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.062</v>
+        <v>-3.689</v>
       </c>
     </row>
     <row r="127">
@@ -19345,7 +19345,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>-11.54664</v>
+        <v>9.94797</v>
       </c>
     </row>
     <row r="128">
@@ -19353,7 +19353,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>-11.54594</v>
+        <v>105.75974</v>
       </c>
     </row>
     <row r="129">
@@ -19361,7 +19361,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>-20.42894</v>
+        <v>59.64531</v>
       </c>
     </row>
     <row r="130">
@@ -19369,7 +19369,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>-20.43086</v>
+        <v>59.64292</v>
       </c>
     </row>
   </sheetData>
@@ -19408,10 +19408,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.102</v>
+        <v>5.551</v>
       </c>
       <c r="C2" t="n">
-        <v>27.93</v>
+        <v>13.965</v>
       </c>
     </row>
     <row r="3">
@@ -19419,10 +19419,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>-11.102</v>
+        <v>-5.551</v>
       </c>
       <c r="C3" t="n">
-        <v>27.93</v>
+        <v>13.965</v>
       </c>
     </row>
   </sheetData>
@@ -19475,7 +19475,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00035</v>
+        <v>0.00018</v>
       </c>
     </row>
     <row r="4">
@@ -19486,7 +19486,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00035</v>
+        <v>0.00018</v>
       </c>
     </row>
     <row r="5">
@@ -19505,7 +19505,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.00051</v>
+        <v>-0.00025</v>
       </c>
       <c r="C6" t="n">
         <v>-1e-05</v>
@@ -19516,10 +19516,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0005</v>
+        <v>-0.00025</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00035</v>
+        <v>0.00018</v>
       </c>
     </row>
     <row r="8">
@@ -19527,10 +19527,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0005</v>
+        <v>0.00025</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00035</v>
+        <v>0.00018</v>
       </c>
     </row>
     <row r="9">
@@ -19538,7 +19538,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.00051</v>
+        <v>0.00025</v>
       </c>
       <c r="C9" t="n">
         <v>-1e-05</v>
@@ -19549,10 +19549,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.00173</v>
+        <v>-0.00086</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00032</v>
+        <v>0.00016</v>
       </c>
     </row>
     <row r="11">
@@ -19560,10 +19560,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.00173</v>
+        <v>0.00086</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00032</v>
+        <v>0.00016</v>
       </c>
     </row>
     <row r="12">
@@ -19571,10 +19571,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.00174</v>
+        <v>-0.00087</v>
       </c>
       <c r="C12" t="n">
-        <v>3e-05</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="13">
@@ -19582,10 +19582,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.00174</v>
+        <v>0.00087</v>
       </c>
       <c r="C13" t="n">
-        <v>3e-05</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="14">
@@ -19593,10 +19593,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.00278</v>
+        <v>-0.00139</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00017</v>
+        <v>8.000000000000001e-05</v>
       </c>
     </row>
     <row r="15">
@@ -19604,10 +19604,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.00278</v>
+        <v>0.00139</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00017</v>
+        <v>8.000000000000001e-05</v>
       </c>
     </row>
     <row r="16">
@@ -19615,10 +19615,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.00278</v>
+        <v>-0.00139</v>
       </c>
       <c r="C16" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="17">
@@ -19626,10 +19626,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.00278</v>
+        <v>0.00139</v>
       </c>
       <c r="C17" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="18">
@@ -19637,10 +19637,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.0027</v>
+        <v>-0.00135</v>
       </c>
       <c r="C18" t="n">
-        <v>4e-05</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="19">
@@ -19648,10 +19648,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0027</v>
+        <v>0.00135</v>
       </c>
       <c r="C19" t="n">
-        <v>4e-05</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="20">
@@ -19659,10 +19659,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.00262</v>
+        <v>-0.00131</v>
       </c>
       <c r="C20" t="n">
-        <v>0.00013</v>
+        <v>6.999999999999999e-05</v>
       </c>
     </row>
     <row r="21">
@@ -19670,10 +19670,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.00262</v>
+        <v>0.00131</v>
       </c>
       <c r="C21" t="n">
-        <v>0.00013</v>
+        <v>6.999999999999999e-05</v>
       </c>
     </row>
     <row r="22">
@@ -19681,10 +19681,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.0024</v>
+        <v>-0.0012</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.00018</v>
+        <v>-9.000000000000001e-05</v>
       </c>
     </row>
     <row r="23">
@@ -19692,10 +19692,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0024</v>
+        <v>0.0012</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.00018</v>
+        <v>-9.000000000000001e-05</v>
       </c>
     </row>
     <row r="24">
@@ -19703,10 +19703,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.00212</v>
+        <v>-0.00106</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.0004</v>
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="25">
@@ -19714,10 +19714,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.00212</v>
+        <v>0.00106</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.0004</v>
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="26">
@@ -19725,10 +19725,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.00202</v>
+        <v>-0.00101</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0002</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="27">
@@ -19736,10 +19736,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.00202</v>
+        <v>0.00101</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0002</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="28">
@@ -19747,10 +19747,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.0018</v>
+        <v>-0.0009</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.00072</v>
+        <v>-0.00036</v>
       </c>
     </row>
     <row r="29">
@@ -19758,10 +19758,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0018</v>
+        <v>0.0009</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.00072</v>
+        <v>-0.00036</v>
       </c>
     </row>
     <row r="30">
@@ -19769,10 +19769,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.00152</v>
+        <v>-0.00076</v>
       </c>
       <c r="C30" t="n">
-        <v>0.00022</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="31">
@@ -19780,10 +19780,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.00152</v>
+        <v>0.00076</v>
       </c>
       <c r="C31" t="n">
-        <v>0.00022</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="32">
@@ -19791,10 +19791,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.00153</v>
+        <v>-0.00077</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.00099</v>
+        <v>-0.0005</v>
       </c>
     </row>
     <row r="33">
@@ -19802,10 +19802,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.00153</v>
+        <v>0.00077</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.00099</v>
+        <v>-0.0005</v>
       </c>
     </row>
     <row r="34">
@@ -19813,10 +19813,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.00129</v>
+        <v>-0.00065</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.00134</v>
+        <v>-0.00067</v>
       </c>
     </row>
     <row r="35">
@@ -19824,10 +19824,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.00129</v>
+        <v>0.00065</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.00134</v>
+        <v>-0.00067</v>
       </c>
     </row>
     <row r="36">
@@ -19835,10 +19835,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.00129</v>
+        <v>-0.0006400000000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>-9.000000000000001e-05</v>
+        <v>-5e-05</v>
       </c>
     </row>
     <row r="37">
@@ -19846,10 +19846,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.00129</v>
+        <v>0.0006400000000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>-9.000000000000001e-05</v>
+        <v>-5e-05</v>
       </c>
     </row>
     <row r="38">
@@ -19857,10 +19857,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.00103</v>
+        <v>-0.00052</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.0005</v>
+        <v>-0.00025</v>
       </c>
     </row>
     <row r="39">
@@ -19868,10 +19868,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.00103</v>
+        <v>0.00052</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.0005</v>
+        <v>-0.00025</v>
       </c>
     </row>
     <row r="40">
@@ -19879,10 +19879,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.0009700000000000001</v>
+        <v>-0.00048</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.0018</v>
+        <v>-0.0009</v>
       </c>
     </row>
     <row r="41">
@@ -19890,10 +19890,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0009700000000000001</v>
+        <v>0.00048</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.0018</v>
+        <v>-0.0009</v>
       </c>
     </row>
     <row r="42">
@@ -19901,10 +19901,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.0008</v>
+        <v>-0.0004</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.0009300000000000001</v>
+        <v>-0.00046</v>
       </c>
     </row>
     <row r="43">
@@ -19912,10 +19912,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0008</v>
+        <v>0.0004</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.0009300000000000001</v>
+        <v>-0.00046</v>
       </c>
     </row>
     <row r="44">
@@ -19923,10 +19923,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.00078</v>
+        <v>-0.00039</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.0022</v>
+        <v>-0.0011</v>
       </c>
     </row>
     <row r="45">
@@ -19934,10 +19934,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.00078</v>
+        <v>0.00039</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.0022</v>
+        <v>-0.0011</v>
       </c>
     </row>
     <row r="46">
@@ -19945,10 +19945,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.00057</v>
+        <v>-0.00028</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.00144</v>
+        <v>-0.00072</v>
       </c>
     </row>
     <row r="47">
@@ -19956,10 +19956,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.00057</v>
+        <v>0.00028</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.00144</v>
+        <v>-0.00072</v>
       </c>
     </row>
     <row r="48">
@@ -19967,10 +19967,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.00046</v>
+        <v>-0.00023</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.00285</v>
+        <v>-0.00143</v>
       </c>
     </row>
     <row r="49">
@@ -19978,10 +19978,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.00046</v>
+        <v>0.00023</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.00285</v>
+        <v>-0.00143</v>
       </c>
     </row>
     <row r="50">
@@ -19989,10 +19989,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.00036</v>
+        <v>-0.00018</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.00198</v>
+        <v>-0.00099</v>
       </c>
     </row>
     <row r="51">
@@ -20000,10 +20000,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.00036</v>
+        <v>0.00018</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.00198</v>
+        <v>-0.00099</v>
       </c>
     </row>
     <row r="52">
@@ -20011,10 +20011,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.00032</v>
+        <v>-0.00016</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.00333</v>
+        <v>-0.00167</v>
       </c>
     </row>
     <row r="53">
@@ -20022,10 +20022,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0.00032</v>
+        <v>0.00016</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.00333</v>
+        <v>-0.00167</v>
       </c>
     </row>
     <row r="54">
@@ -20033,10 +20033,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.00018</v>
+        <v>-9.000000000000001e-05</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.00262</v>
+        <v>-0.00131</v>
       </c>
     </row>
     <row r="55">
@@ -20044,10 +20044,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.00018</v>
+        <v>9.000000000000001e-05</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.00262</v>
+        <v>-0.00131</v>
       </c>
     </row>
     <row r="56">
@@ -20055,10 +20055,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.00011</v>
+        <v>-6e-05</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.00403</v>
+        <v>-0.00202</v>
       </c>
     </row>
     <row r="57">
@@ -20066,10 +20066,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.00011</v>
+        <v>6e-05</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.00403</v>
+        <v>-0.00202</v>
       </c>
     </row>
     <row r="58">
@@ -20077,10 +20077,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>-5e-05</v>
+        <v>-3e-05</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.00441</v>
+        <v>-0.00221</v>
       </c>
     </row>
     <row r="59">
@@ -20088,10 +20088,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>5e-05</v>
+        <v>3e-05</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.00441</v>
+        <v>-0.00221</v>
       </c>
     </row>
     <row r="60">
@@ -20099,10 +20099,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>-4e-05</v>
+        <v>-2e-05</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.00325</v>
+        <v>-0.00162</v>
       </c>
     </row>
     <row r="61">
@@ -20110,10 +20110,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>4e-05</v>
+        <v>2e-05</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.00325</v>
+        <v>-0.00162</v>
       </c>
     </row>
     <row r="62">
@@ -20124,7 +20124,7 @@
         <v>-0</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.00469</v>
+        <v>-0.00234</v>
       </c>
     </row>
     <row r="63">
@@ -20132,10 +20132,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>4e-05</v>
+        <v>2e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.00395</v>
+        <v>-0.00198</v>
       </c>
     </row>
     <row r="64">
@@ -20143,10 +20143,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>-4e-05</v>
+        <v>-2e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.00395</v>
+        <v>-0.00198</v>
       </c>
     </row>
     <row r="65">
@@ -20154,10 +20154,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>5e-05</v>
+        <v>2e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.0044</v>
+        <v>-0.0022</v>
       </c>
     </row>
     <row r="66">
@@ -20165,10 +20165,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>-5e-05</v>
+        <v>-2e-05</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.0044</v>
+        <v>-0.0022</v>
       </c>
     </row>
     <row r="67">
@@ -20179,7 +20179,7 @@
         <v>-0</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.00469</v>
+        <v>-0.00234</v>
       </c>
     </row>
   </sheetData>
